--- a/Microsoft 365/Current Channel/publishercontrols.xlsx
+++ b/Microsoft 365/Current Channel/publishercontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcoard\OneDrive - Microsoft\Documents\RibbonX Upload\CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RibbonXThing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B2B195-816E-4E46-BB8D-95B341955EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{110E6428-6D5F-4AEE-A97E-66967C4BCB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="23325"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="publishercontrols" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7899" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7937" uniqueCount="900">
   <si>
     <t>Policy ID</t>
   </si>
@@ -2730,21 +2730,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -2752,7 +2752,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2760,7 +2760,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2768,35 +2768,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2804,7 +2804,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2812,14 +2812,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2827,14 +2827,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2842,7 +2842,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2850,14 +2850,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3264,8 +3264,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I1518" totalsRowShown="0">
-  <autoFilter ref="A1:I1518"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I1524" totalsRowShown="0">
+  <autoFilter ref="A1:I1524"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Control Name"/>
     <tableColumn id="2" name="Control Type"/>
@@ -3292,39 +3292,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3376,7 +3376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3487,13 +3487,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -3502,6 +3495,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3566,11 +3566,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3578,7 +3598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1518"/>
+  <dimension ref="A1:I1524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -3586,15 +3606,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -25127,8 +25147,11 @@
       </c>
     </row>
     <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>729</v>
+      </c>
       <c r="B1044" t="s">
-        <v>9</v>
+        <v>723</v>
       </c>
       <c r="C1044" t="s">
         <v>699</v>
@@ -25142,19 +25165,16 @@
       <c r="F1044" t="s">
         <v>720</v>
       </c>
-      <c r="G1044" t="s">
-        <v>727</v>
-      </c>
       <c r="H1044">
-        <v>22579</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B1045" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1045" t="s">
         <v>699</v>
@@ -25168,16 +25188,16 @@
       <c r="F1045" t="s">
         <v>720</v>
       </c>
+      <c r="G1045" t="s">
+        <v>729</v>
+      </c>
       <c r="H1045">
-        <v>24860</v>
+        <v>22688</v>
       </c>
     </row>
     <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1046" t="s">
-        <v>730</v>
-      </c>
       <c r="B1046" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1046" t="s">
         <v>699</v>
@@ -25195,12 +25215,12 @@
         <v>729</v>
       </c>
       <c r="H1046">
-        <v>22688</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1047" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1047" t="s">
         <v>699</v>
@@ -25218,10 +25238,13 @@
         <v>729</v>
       </c>
       <c r="H1047">
-        <v>33480</v>
+        <v>33988</v>
       </c>
     </row>
     <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>731</v>
+      </c>
       <c r="B1048" t="s">
         <v>26</v>
       </c>
@@ -25241,15 +25264,12 @@
         <v>729</v>
       </c>
       <c r="H1048">
-        <v>33988</v>
+        <v>26728</v>
       </c>
     </row>
     <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1049" t="s">
-        <v>731</v>
-      </c>
       <c r="B1049" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1049" t="s">
         <v>699</v>
@@ -25267,12 +25287,15 @@
         <v>729</v>
       </c>
       <c r="H1049">
-        <v>26728</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>732</v>
+      </c>
       <c r="B1050" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1050" t="s">
         <v>699</v>
@@ -25290,12 +25313,12 @@
         <v>729</v>
       </c>
       <c r="H1050">
-        <v>22579</v>
+        <v>24962</v>
       </c>
     </row>
     <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B1051" t="s">
         <v>26</v>
@@ -25316,12 +25339,12 @@
         <v>729</v>
       </c>
       <c r="H1051">
-        <v>24962</v>
+        <v>24963</v>
       </c>
     </row>
     <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B1052" t="s">
         <v>26</v>
@@ -25342,12 +25365,12 @@
         <v>729</v>
       </c>
       <c r="H1052">
-        <v>24963</v>
+        <v>24980</v>
       </c>
     </row>
     <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B1053" t="s">
         <v>26</v>
@@ -25358,25 +25381,16 @@
       <c r="D1053" t="s">
         <v>717</v>
       </c>
-      <c r="E1053" t="s">
-        <v>718</v>
-      </c>
-      <c r="F1053" t="s">
-        <v>720</v>
-      </c>
-      <c r="G1053" t="s">
-        <v>729</v>
-      </c>
       <c r="H1053">
-        <v>24980</v>
+        <v>34382</v>
       </c>
     </row>
     <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B1054" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1054" t="s">
         <v>699</v>
@@ -25384,13 +25398,16 @@
       <c r="D1054" t="s">
         <v>717</v>
       </c>
+      <c r="E1054" t="s">
+        <v>735</v>
+      </c>
       <c r="H1054">
-        <v>34382</v>
+        <v>25170</v>
       </c>
     </row>
     <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B1055" t="s">
         <v>36</v>
@@ -25405,15 +25422,15 @@
         <v>735</v>
       </c>
       <c r="H1055">
-        <v>25170</v>
+        <v>34333</v>
       </c>
     </row>
     <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B1056" t="s">
-        <v>36</v>
+        <v>721</v>
       </c>
       <c r="C1056" t="s">
         <v>699</v>
@@ -25425,15 +25442,15 @@
         <v>735</v>
       </c>
       <c r="H1056">
-        <v>34333</v>
+        <v>34335</v>
       </c>
     </row>
     <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="B1057" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C1057" t="s">
         <v>699</v>
@@ -25444,16 +25461,19 @@
       <c r="E1057" t="s">
         <v>735</v>
       </c>
+      <c r="F1057" t="s">
+        <v>738</v>
+      </c>
       <c r="H1057">
-        <v>34335</v>
+        <v>25169</v>
       </c>
     </row>
     <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="B1058" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1058" t="s">
         <v>699</v>
@@ -25467,16 +25487,16 @@
       <c r="F1058" t="s">
         <v>738</v>
       </c>
+      <c r="G1058" t="s">
+        <v>722</v>
+      </c>
       <c r="H1058">
-        <v>25169</v>
+        <v>34337</v>
       </c>
     </row>
     <row r="1059" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1059" t="s">
-        <v>739</v>
-      </c>
       <c r="B1059" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1059" t="s">
         <v>699</v>
@@ -25494,12 +25514,15 @@
         <v>722</v>
       </c>
       <c r="H1059">
-        <v>34337</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1060" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>724</v>
+      </c>
       <c r="B1060" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C1060" t="s">
         <v>699</v>
@@ -25517,15 +25540,15 @@
         <v>722</v>
       </c>
       <c r="H1060">
-        <v>33480</v>
+        <v>24088</v>
       </c>
     </row>
     <row r="1061" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B1061" t="s">
-        <v>9</v>
+        <v>723</v>
       </c>
       <c r="C1061" t="s">
         <v>699</v>
@@ -25539,19 +25562,16 @@
       <c r="F1061" t="s">
         <v>738</v>
       </c>
-      <c r="G1061" t="s">
-        <v>722</v>
-      </c>
       <c r="H1061">
-        <v>24088</v>
+        <v>33246</v>
       </c>
     </row>
     <row r="1062" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="B1062" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1062" t="s">
         <v>699</v>
@@ -25565,16 +25585,19 @@
       <c r="F1062" t="s">
         <v>738</v>
       </c>
+      <c r="G1062" t="s">
+        <v>725</v>
+      </c>
       <c r="H1062">
-        <v>33246</v>
+        <v>34339</v>
       </c>
     </row>
     <row r="1063" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="B1063" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1063" t="s">
         <v>699</v>
@@ -25588,19 +25611,16 @@
       <c r="F1063" t="s">
         <v>738</v>
       </c>
-      <c r="G1063" t="s">
-        <v>725</v>
-      </c>
       <c r="H1063">
-        <v>34339</v>
+        <v>27308</v>
       </c>
     </row>
     <row r="1064" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B1064" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1064" t="s">
         <v>699</v>
@@ -25614,16 +25634,19 @@
       <c r="F1064" t="s">
         <v>738</v>
       </c>
+      <c r="G1064" t="s">
+        <v>727</v>
+      </c>
       <c r="H1064">
-        <v>27308</v>
+        <v>34340</v>
       </c>
     </row>
     <row r="1065" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="B1065" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1065" t="s">
         <v>699</v>
@@ -25637,16 +25660,16 @@
       <c r="F1065" t="s">
         <v>738</v>
       </c>
-      <c r="G1065" t="s">
-        <v>727</v>
-      </c>
       <c r="H1065">
-        <v>34340</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1066" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>742</v>
+      </c>
       <c r="B1066" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1066" t="s">
         <v>699</v>
@@ -25661,18 +25684,15 @@
         <v>738</v>
       </c>
       <c r="G1066" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H1066">
-        <v>22579</v>
+        <v>34347</v>
       </c>
     </row>
     <row r="1067" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1067" t="s">
-        <v>729</v>
-      </c>
       <c r="B1067" t="s">
-        <v>723</v>
+        <v>36</v>
       </c>
       <c r="C1067" t="s">
         <v>699</v>
@@ -25686,14 +25706,14 @@
       <c r="F1067" t="s">
         <v>738</v>
       </c>
+      <c r="G1067" t="s">
+        <v>729</v>
+      </c>
       <c r="H1067">
-        <v>24860</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1068" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1068" t="s">
-        <v>742</v>
-      </c>
       <c r="B1068" t="s">
         <v>26</v>
       </c>
@@ -25713,12 +25733,15 @@
         <v>729</v>
       </c>
       <c r="H1068">
-        <v>34347</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>743</v>
+      </c>
       <c r="B1069" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1069" t="s">
         <v>699</v>
@@ -25736,12 +25759,12 @@
         <v>729</v>
       </c>
       <c r="H1069">
-        <v>33480</v>
+        <v>34365</v>
       </c>
     </row>
     <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1070" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1070" t="s">
         <v>699</v>
@@ -25759,15 +25782,15 @@
         <v>729</v>
       </c>
       <c r="H1070">
-        <v>34369</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1071" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="B1071" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1071" t="s">
         <v>699</v>
@@ -25781,16 +25804,16 @@
       <c r="F1071" t="s">
         <v>738</v>
       </c>
-      <c r="G1071" t="s">
-        <v>729</v>
-      </c>
       <c r="H1071">
-        <v>34365</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1072" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>744</v>
+      </c>
       <c r="B1072" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1072" t="s">
         <v>699</v>
@@ -25808,15 +25831,15 @@
         <v>729</v>
       </c>
       <c r="H1072">
-        <v>22579</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="B1073" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1073" t="s">
         <v>699</v>
@@ -25830,16 +25853,19 @@
       <c r="F1073" t="s">
         <v>738</v>
       </c>
+      <c r="G1073" t="s">
+        <v>729</v>
+      </c>
       <c r="H1073">
-        <v>24860</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1074" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="B1074" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1074" t="s">
         <v>699</v>
@@ -25850,19 +25876,13 @@
       <c r="E1074" t="s">
         <v>735</v>
       </c>
-      <c r="F1074" t="s">
-        <v>738</v>
-      </c>
-      <c r="G1074" t="s">
-        <v>729</v>
-      </c>
       <c r="H1074">
-        <v>34357</v>
+        <v>25169</v>
       </c>
     </row>
     <row r="1075" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B1075" t="s">
         <v>26</v>
@@ -25877,21 +25897,15 @@
         <v>735</v>
       </c>
       <c r="F1075" t="s">
-        <v>738</v>
-      </c>
-      <c r="G1075" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="H1075">
-        <v>34358</v>
+        <v>34337</v>
       </c>
     </row>
     <row r="1076" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1076" t="s">
-        <v>722</v>
-      </c>
       <c r="B1076" t="s">
-        <v>723</v>
+        <v>36</v>
       </c>
       <c r="C1076" t="s">
         <v>699</v>
@@ -25902,16 +25916,22 @@
       <c r="E1076" t="s">
         <v>735</v>
       </c>
+      <c r="F1076" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1076" t="s">
+        <v>739</v>
+      </c>
       <c r="H1076">
-        <v>25169</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1077" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="B1077" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1077" t="s">
         <v>699</v>
@@ -25925,13 +25945,19 @@
       <c r="F1077" t="s">
         <v>722</v>
       </c>
+      <c r="G1077" t="s">
+        <v>739</v>
+      </c>
       <c r="H1077">
-        <v>34337</v>
+        <v>24088</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>739</v>
+      </c>
       <c r="B1078" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1078" t="s">
         <v>699</v>
@@ -25942,22 +25968,13 @@
       <c r="E1078" t="s">
         <v>735</v>
       </c>
-      <c r="F1078" t="s">
-        <v>722</v>
-      </c>
-      <c r="G1078" t="s">
-        <v>739</v>
-      </c>
       <c r="H1078">
-        <v>33480</v>
+        <v>34337</v>
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1079" t="s">
-        <v>724</v>
-      </c>
       <c r="B1079" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C1079" t="s">
         <v>699</v>
@@ -25969,21 +25986,18 @@
         <v>735</v>
       </c>
       <c r="F1079" t="s">
-        <v>722</v>
-      </c>
-      <c r="G1079" t="s">
         <v>739</v>
       </c>
       <c r="H1079">
-        <v>24088</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1080" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="B1080" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1080" t="s">
         <v>699</v>
@@ -25994,8 +26008,11 @@
       <c r="E1080" t="s">
         <v>735</v>
       </c>
+      <c r="F1080" t="s">
+        <v>739</v>
+      </c>
       <c r="H1080">
-        <v>34337</v>
+        <v>24088</v>
       </c>
     </row>
     <row r="1081" spans="1:8" x14ac:dyDescent="0.25">
@@ -26011,9 +26028,6 @@
       <c r="E1081" t="s">
         <v>735</v>
       </c>
-      <c r="F1081" t="s">
-        <v>739</v>
-      </c>
       <c r="H1081">
         <v>33480</v>
       </c>
@@ -26034,16 +26048,16 @@
       <c r="E1082" t="s">
         <v>735</v>
       </c>
-      <c r="F1082" t="s">
-        <v>739</v>
-      </c>
       <c r="H1082">
         <v>24088</v>
       </c>
     </row>
     <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>725</v>
+      </c>
       <c r="B1083" t="s">
-        <v>36</v>
+        <v>723</v>
       </c>
       <c r="C1083" t="s">
         <v>699</v>
@@ -26055,15 +26069,15 @@
         <v>735</v>
       </c>
       <c r="H1083">
-        <v>33480</v>
+        <v>33246</v>
       </c>
     </row>
     <row r="1084" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="B1084" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1084" t="s">
         <v>699</v>
@@ -26074,16 +26088,19 @@
       <c r="E1084" t="s">
         <v>735</v>
       </c>
+      <c r="F1084" t="s">
+        <v>725</v>
+      </c>
       <c r="H1084">
-        <v>24088</v>
+        <v>34339</v>
       </c>
     </row>
     <row r="1085" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="B1085" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1085" t="s">
         <v>699</v>
@@ -26095,15 +26112,15 @@
         <v>735</v>
       </c>
       <c r="H1085">
-        <v>33246</v>
+        <v>34339</v>
       </c>
     </row>
     <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="B1086" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1086" t="s">
         <v>699</v>
@@ -26114,16 +26131,13 @@
       <c r="E1086" t="s">
         <v>735</v>
       </c>
-      <c r="F1086" t="s">
-        <v>725</v>
-      </c>
       <c r="H1086">
-        <v>34339</v>
+        <v>27308</v>
       </c>
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B1087" t="s">
         <v>26</v>
@@ -26137,16 +26151,19 @@
       <c r="E1087" t="s">
         <v>735</v>
       </c>
+      <c r="F1087" t="s">
+        <v>727</v>
+      </c>
       <c r="H1087">
-        <v>34339</v>
+        <v>34340</v>
       </c>
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B1088" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1088" t="s">
         <v>699</v>
@@ -26158,15 +26175,15 @@
         <v>735</v>
       </c>
       <c r="H1088">
-        <v>27308</v>
+        <v>34340</v>
       </c>
     </row>
     <row r="1089" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="B1089" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1089" t="s">
         <v>699</v>
@@ -26177,16 +26194,16 @@
       <c r="E1089" t="s">
         <v>735</v>
       </c>
-      <c r="F1089" t="s">
-        <v>727</v>
-      </c>
       <c r="H1089">
-        <v>34340</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1090" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>742</v>
+      </c>
       <c r="B1090" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1090" t="s">
         <v>699</v>
@@ -26198,21 +26215,15 @@
         <v>735</v>
       </c>
       <c r="F1090" t="s">
-        <v>727</v>
-      </c>
-      <c r="G1090" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="H1090">
-        <v>22579</v>
+        <v>34347</v>
       </c>
     </row>
     <row r="1091" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1091" t="s">
-        <v>741</v>
-      </c>
       <c r="B1091" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1091" t="s">
         <v>699</v>
@@ -26223,13 +26234,19 @@
       <c r="E1091" t="s">
         <v>735</v>
       </c>
+      <c r="F1091" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>742</v>
+      </c>
       <c r="H1091">
-        <v>34340</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1092" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1092" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1092" t="s">
         <v>699</v>
@@ -26241,15 +26258,18 @@
         <v>735</v>
       </c>
       <c r="F1092" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="H1092">
-        <v>22579</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>743</v>
+      </c>
       <c r="B1093" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1093" t="s">
         <v>699</v>
@@ -26260,16 +26280,16 @@
       <c r="E1093" t="s">
         <v>735</v>
       </c>
+      <c r="F1093" t="s">
+        <v>729</v>
+      </c>
       <c r="H1093">
-        <v>22579</v>
+        <v>34365</v>
       </c>
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1094" t="s">
-        <v>729</v>
-      </c>
       <c r="B1094" t="s">
-        <v>723</v>
+        <v>9</v>
       </c>
       <c r="C1094" t="s">
         <v>699</v>
@@ -26280,8 +26300,14 @@
       <c r="E1094" t="s">
         <v>735</v>
       </c>
+      <c r="F1094" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>743</v>
+      </c>
       <c r="H1094">
-        <v>24860</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1095" spans="1:8" x14ac:dyDescent="0.25">
@@ -26300,9 +26326,6 @@
       <c r="E1095" t="s">
         <v>735</v>
       </c>
-      <c r="F1095" t="s">
-        <v>729</v>
-      </c>
       <c r="H1095">
         <v>34347</v>
       </c>
@@ -26321,9 +26344,6 @@
         <v>735</v>
       </c>
       <c r="F1096" t="s">
-        <v>729</v>
-      </c>
-      <c r="G1096" t="s">
         <v>742</v>
       </c>
       <c r="H1096">
@@ -26343,9 +26363,6 @@
       <c r="E1097" t="s">
         <v>735</v>
       </c>
-      <c r="F1097" t="s">
-        <v>729</v>
-      </c>
       <c r="H1097">
         <v>34369</v>
       </c>
@@ -26366,9 +26383,6 @@
       <c r="E1098" t="s">
         <v>735</v>
       </c>
-      <c r="F1098" t="s">
-        <v>729</v>
-      </c>
       <c r="H1098">
         <v>34365</v>
       </c>
@@ -26387,9 +26401,6 @@
         <v>735</v>
       </c>
       <c r="F1099" t="s">
-        <v>729</v>
-      </c>
-      <c r="G1099" t="s">
         <v>743</v>
       </c>
       <c r="H1099">
@@ -26397,11 +26408,8 @@
       </c>
     </row>
     <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1100" t="s">
-        <v>742</v>
-      </c>
       <c r="B1100" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1100" t="s">
         <v>699</v>
@@ -26413,10 +26421,13 @@
         <v>735</v>
       </c>
       <c r="H1100">
-        <v>34347</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>729</v>
+      </c>
       <c r="B1101" t="s">
         <v>36</v>
       </c>
@@ -26429,14 +26440,14 @@
       <c r="E1101" t="s">
         <v>735</v>
       </c>
-      <c r="F1101" t="s">
-        <v>742</v>
-      </c>
       <c r="H1101">
-        <v>33480</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>746</v>
+      </c>
       <c r="B1102" t="s">
         <v>26</v>
       </c>
@@ -26450,15 +26461,12 @@
         <v>735</v>
       </c>
       <c r="H1102">
-        <v>34369</v>
+        <v>34675</v>
       </c>
     </row>
     <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1103" t="s">
-        <v>743</v>
-      </c>
       <c r="B1103" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1103" t="s">
         <v>699</v>
@@ -26469,13 +26477,16 @@
       <c r="E1103" t="s">
         <v>735</v>
       </c>
+      <c r="F1103" t="s">
+        <v>746</v>
+      </c>
       <c r="H1103">
-        <v>34365</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1104" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1104" t="s">
         <v>699</v>
@@ -26486,19 +26497,16 @@
       <c r="E1104" t="s">
         <v>735</v>
       </c>
-      <c r="F1104" t="s">
-        <v>743</v>
-      </c>
       <c r="H1104">
-        <v>22579</v>
+        <v>34676</v>
       </c>
     </row>
     <row r="1105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="B1105" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1105" t="s">
         <v>699</v>
@@ -26510,15 +26518,12 @@
         <v>735</v>
       </c>
       <c r="H1105">
-        <v>24860</v>
+        <v>34677</v>
       </c>
     </row>
     <row r="1106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1106" t="s">
-        <v>746</v>
-      </c>
       <c r="B1106" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1106" t="s">
         <v>699</v>
@@ -26529,13 +26534,19 @@
       <c r="E1106" t="s">
         <v>735</v>
       </c>
+      <c r="F1106" t="s">
+        <v>747</v>
+      </c>
       <c r="H1106">
-        <v>34675</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>744</v>
+      </c>
       <c r="B1107" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1107" t="s">
         <v>699</v>
@@ -26547,15 +26558,15 @@
         <v>735</v>
       </c>
       <c r="F1107" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="H1107">
-        <v>33480</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1108" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1108" t="s">
         <v>699</v>
@@ -26566,13 +26577,19 @@
       <c r="E1108" t="s">
         <v>735</v>
       </c>
+      <c r="F1108" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>744</v>
+      </c>
       <c r="H1108">
-        <v>34676</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B1109" t="s">
         <v>26</v>
@@ -26587,7 +26604,7 @@
         <v>735</v>
       </c>
       <c r="H1109">
-        <v>34677</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1110" spans="1:8" x14ac:dyDescent="0.25">
@@ -26604,7 +26621,7 @@
         <v>735</v>
       </c>
       <c r="F1110" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H1110">
         <v>22579</v>
@@ -26612,7 +26629,7 @@
     </row>
     <row r="1111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B1111" t="s">
         <v>26</v>
@@ -26630,12 +26647,15 @@
         <v>729</v>
       </c>
       <c r="H1111">
-        <v>34357</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>745</v>
+      </c>
       <c r="B1112" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1112" t="s">
         <v>699</v>
@@ -26646,22 +26666,16 @@
       <c r="E1112" t="s">
         <v>735</v>
       </c>
-      <c r="F1112" t="s">
-        <v>729</v>
-      </c>
-      <c r="G1112" t="s">
-        <v>744</v>
-      </c>
       <c r="H1112">
-        <v>22579</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B1113" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1113" t="s">
         <v>699</v>
@@ -26673,12 +26687,15 @@
         <v>735</v>
       </c>
       <c r="H1113">
-        <v>34357</v>
+        <v>34334</v>
       </c>
     </row>
     <row r="1114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>749</v>
+      </c>
       <c r="B1114" t="s">
-        <v>9</v>
+        <v>721</v>
       </c>
       <c r="C1114" t="s">
         <v>699</v>
@@ -26689,19 +26706,16 @@
       <c r="E1114" t="s">
         <v>735</v>
       </c>
-      <c r="F1114" t="s">
-        <v>744</v>
-      </c>
       <c r="H1114">
-        <v>22579</v>
+        <v>34336</v>
       </c>
     </row>
     <row r="1115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="B1115" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1115" t="s">
         <v>699</v>
@@ -26713,15 +26727,15 @@
         <v>735</v>
       </c>
       <c r="F1115" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="H1115">
-        <v>34358</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B1116" t="s">
         <v>26</v>
@@ -26735,14 +26749,17 @@
       <c r="E1116" t="s">
         <v>735</v>
       </c>
+      <c r="F1116" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1116" t="s">
+        <v>729</v>
+      </c>
       <c r="H1116">
-        <v>34358</v>
+        <v>34348</v>
       </c>
     </row>
     <row r="1117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1117" t="s">
-        <v>748</v>
-      </c>
       <c r="B1117" t="s">
         <v>36</v>
       </c>
@@ -26755,16 +26772,22 @@
       <c r="E1117" t="s">
         <v>735</v>
       </c>
+      <c r="F1117" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1117" t="s">
+        <v>729</v>
+      </c>
       <c r="H1117">
-        <v>34334</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B1118" t="s">
-        <v>721</v>
+        <v>26</v>
       </c>
       <c r="C1118" t="s">
         <v>699</v>
@@ -26775,16 +26798,19 @@
       <c r="E1118" t="s">
         <v>735</v>
       </c>
+      <c r="F1118" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1118" t="s">
+        <v>729</v>
+      </c>
       <c r="H1118">
-        <v>34336</v>
+        <v>34366</v>
       </c>
     </row>
     <row r="1119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1119" t="s">
-        <v>729</v>
-      </c>
       <c r="B1119" t="s">
-        <v>723</v>
+        <v>9</v>
       </c>
       <c r="C1119" t="s">
         <v>699</v>
@@ -26798,13 +26824,16 @@
       <c r="F1119" t="s">
         <v>749</v>
       </c>
+      <c r="G1119" t="s">
+        <v>729</v>
+      </c>
       <c r="H1119">
-        <v>24860</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B1120" t="s">
         <v>26</v>
@@ -26825,12 +26854,15 @@
         <v>729</v>
       </c>
       <c r="H1120">
-        <v>34348</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>750</v>
+      </c>
       <c r="B1121" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1121" t="s">
         <v>699</v>
@@ -26842,21 +26874,15 @@
         <v>735</v>
       </c>
       <c r="F1121" t="s">
-        <v>749</v>
-      </c>
-      <c r="G1121" t="s">
         <v>729</v>
       </c>
       <c r="H1121">
-        <v>33480</v>
+        <v>34348</v>
       </c>
     </row>
     <row r="1122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1122" t="s">
-        <v>751</v>
-      </c>
       <c r="B1122" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1122" t="s">
         <v>699</v>
@@ -26868,18 +26894,21 @@
         <v>735</v>
       </c>
       <c r="F1122" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="G1122" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="H1122">
-        <v>34366</v>
+        <v>33480</v>
       </c>
     </row>
     <row r="1123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>751</v>
+      </c>
       <c r="B1123" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1123" t="s">
         <v>699</v>
@@ -26891,21 +26920,15 @@
         <v>735</v>
       </c>
       <c r="F1123" t="s">
-        <v>749</v>
-      </c>
-      <c r="G1123" t="s">
         <v>729</v>
       </c>
       <c r="H1123">
-        <v>22579</v>
+        <v>34366</v>
       </c>
     </row>
     <row r="1124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1124" t="s">
-        <v>752</v>
-      </c>
       <c r="B1124" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1124" t="s">
         <v>699</v>
@@ -26917,13 +26940,13 @@
         <v>735</v>
       </c>
       <c r="F1124" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="G1124" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="H1124">
-        <v>34360</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1125" spans="1:8" x14ac:dyDescent="0.25">
@@ -26942,9 +26965,6 @@
       <c r="E1125" t="s">
         <v>735</v>
       </c>
-      <c r="F1125" t="s">
-        <v>729</v>
-      </c>
       <c r="H1125">
         <v>34348</v>
       </c>
@@ -26963,9 +26983,6 @@
         <v>735</v>
       </c>
       <c r="F1126" t="s">
-        <v>729</v>
-      </c>
-      <c r="G1126" t="s">
         <v>750</v>
       </c>
       <c r="H1126">
@@ -26988,9 +27005,6 @@
       <c r="E1127" t="s">
         <v>735</v>
       </c>
-      <c r="F1127" t="s">
-        <v>729</v>
-      </c>
       <c r="H1127">
         <v>34366</v>
       </c>
@@ -27009,9 +27023,6 @@
         <v>735</v>
       </c>
       <c r="F1128" t="s">
-        <v>729</v>
-      </c>
-      <c r="G1128" t="s">
         <v>751</v>
       </c>
       <c r="H1128">
@@ -27020,7 +27031,7 @@
     </row>
     <row r="1129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B1129" t="s">
         <v>26</v>
@@ -27034,13 +27045,19 @@
       <c r="E1129" t="s">
         <v>735</v>
       </c>
+      <c r="F1129" t="s">
+        <v>729</v>
+      </c>
       <c r="H1129">
-        <v>34348</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>752</v>
+      </c>
       <c r="B1130" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1130" t="s">
         <v>699</v>
@@ -27051,130 +27068,121 @@
       <c r="E1130" t="s">
         <v>735</v>
       </c>
-      <c r="F1130" t="s">
-        <v>750</v>
-      </c>
       <c r="H1130">
-        <v>33480</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>751</v>
+        <v>13</v>
       </c>
       <c r="B1131" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1131" t="s">
         <v>699</v>
       </c>
-      <c r="D1131" t="s">
-        <v>717</v>
-      </c>
-      <c r="E1131" t="s">
-        <v>735</v>
-      </c>
       <c r="H1131">
-        <v>34366</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>753</v>
+      </c>
       <c r="B1132" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C1132" t="s">
         <v>699</v>
       </c>
-      <c r="D1132" t="s">
-        <v>717</v>
-      </c>
-      <c r="E1132" t="s">
-        <v>735</v>
-      </c>
-      <c r="F1132" t="s">
-        <v>751</v>
-      </c>
       <c r="H1132">
-        <v>22579</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B1133" t="s">
-        <v>26</v>
+        <v>719</v>
       </c>
       <c r="C1133" t="s">
         <v>699</v>
       </c>
       <c r="D1133" t="s">
-        <v>717</v>
-      </c>
-      <c r="E1133" t="s">
-        <v>735</v>
-      </c>
-      <c r="F1133" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="H1133">
-        <v>34360</v>
+        <v>24191</v>
       </c>
     </row>
     <row r="1134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B1134" t="s">
-        <v>26</v>
+        <v>721</v>
       </c>
       <c r="C1134" t="s">
         <v>699</v>
       </c>
       <c r="D1134" t="s">
-        <v>717</v>
+        <v>753</v>
       </c>
       <c r="E1134" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="H1134">
-        <v>34360</v>
+        <v>24193</v>
       </c>
     </row>
     <row r="1135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1135" t="s">
-        <v>13</v>
-      </c>
       <c r="B1135" t="s">
-        <v>9</v>
+        <v>723</v>
       </c>
       <c r="C1135" t="s">
         <v>699</v>
       </c>
+      <c r="D1135" t="s">
+        <v>753</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>755</v>
+      </c>
       <c r="H1135">
-        <v>3</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="1136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1136" t="s">
-        <v>753</v>
-      </c>
       <c r="B1136" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1136" t="s">
         <v>699</v>
       </c>
+      <c r="D1136" t="s">
+        <v>753</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>755</v>
+      </c>
       <c r="H1136">
-        <v>24190</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="1137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>754</v>
+        <v>707</v>
       </c>
       <c r="B1137" t="s">
-        <v>719</v>
+        <v>9</v>
       </c>
       <c r="C1137" t="s">
         <v>699</v>
@@ -27182,16 +27190,22 @@
       <c r="D1137" t="s">
         <v>753</v>
       </c>
+      <c r="E1137" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>755</v>
+      </c>
       <c r="H1137">
-        <v>24191</v>
+        <v>33912</v>
       </c>
     </row>
     <row r="1138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="B1138" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C1138" t="s">
         <v>699</v>
@@ -27202,13 +27216,19 @@
       <c r="E1138" t="s">
         <v>754</v>
       </c>
+      <c r="F1138" t="s">
+        <v>755</v>
+      </c>
       <c r="H1138">
-        <v>24193</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>756</v>
+      </c>
       <c r="B1139" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1139" t="s">
         <v>699</v>
@@ -27222,13 +27242,19 @@
       <c r="F1139" t="s">
         <v>755</v>
       </c>
+      <c r="G1139" t="s">
+        <v>729</v>
+      </c>
       <c r="H1139">
-        <v>33917</v>
+        <v>24861</v>
       </c>
     </row>
     <row r="1140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>753</v>
+      </c>
       <c r="B1140" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1140" t="s">
         <v>699</v>
@@ -27242,16 +27268,19 @@
       <c r="F1140" t="s">
         <v>755</v>
       </c>
+      <c r="G1140" t="s">
+        <v>729</v>
+      </c>
       <c r="H1140">
-        <v>33917</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>707</v>
+        <v>757</v>
       </c>
       <c r="B1141" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1141" t="s">
         <v>699</v>
@@ -27265,16 +27294,16 @@
       <c r="F1141" t="s">
         <v>755</v>
       </c>
+      <c r="G1141" t="s">
+        <v>729</v>
+      </c>
       <c r="H1141">
-        <v>33912</v>
+        <v>33856</v>
       </c>
     </row>
     <row r="1142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1142" t="s">
-        <v>729</v>
-      </c>
       <c r="B1142" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1142" t="s">
         <v>699</v>
@@ -27288,13 +27317,16 @@
       <c r="F1142" t="s">
         <v>755</v>
       </c>
+      <c r="G1142" t="s">
+        <v>729</v>
+      </c>
       <c r="H1142">
-        <v>24860</v>
+        <v>33988</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B1143" t="s">
         <v>26</v>
@@ -27315,15 +27347,12 @@
         <v>729</v>
       </c>
       <c r="H1143">
-        <v>24861</v>
+        <v>26729</v>
       </c>
     </row>
     <row r="1144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1144" t="s">
-        <v>757</v>
-      </c>
       <c r="B1144" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1144" t="s">
         <v>699</v>
@@ -27341,10 +27370,13 @@
         <v>729</v>
       </c>
       <c r="H1144">
-        <v>33856</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>732</v>
+      </c>
       <c r="B1145" t="s">
         <v>26</v>
       </c>
@@ -27364,12 +27396,12 @@
         <v>729</v>
       </c>
       <c r="H1145">
-        <v>33988</v>
+        <v>24962</v>
       </c>
     </row>
     <row r="1146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="B1146" t="s">
         <v>26</v>
@@ -27390,12 +27422,15 @@
         <v>729</v>
       </c>
       <c r="H1146">
-        <v>26729</v>
+        <v>24963</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>734</v>
+      </c>
       <c r="B1147" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1147" t="s">
         <v>699</v>
@@ -27413,12 +27448,12 @@
         <v>729</v>
       </c>
       <c r="H1147">
-        <v>22579</v>
+        <v>24980</v>
       </c>
     </row>
     <row r="1148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="B1148" t="s">
         <v>26</v>
@@ -27429,25 +27464,16 @@
       <c r="D1148" t="s">
         <v>753</v>
       </c>
-      <c r="E1148" t="s">
-        <v>754</v>
-      </c>
-      <c r="F1148" t="s">
-        <v>755</v>
-      </c>
-      <c r="G1148" t="s">
-        <v>729</v>
-      </c>
       <c r="H1148">
-        <v>24962</v>
+        <v>34496</v>
       </c>
     </row>
     <row r="1149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="B1149" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1149" t="s">
         <v>699</v>
@@ -27456,24 +27482,18 @@
         <v>753</v>
       </c>
       <c r="E1149" t="s">
-        <v>754</v>
-      </c>
-      <c r="F1149" t="s">
-        <v>755</v>
-      </c>
-      <c r="G1149" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="H1149">
-        <v>24963</v>
+        <v>34371</v>
       </c>
     </row>
     <row r="1150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="B1150" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1150" t="s">
         <v>699</v>
@@ -27482,24 +27502,18 @@
         <v>753</v>
       </c>
       <c r="E1150" t="s">
-        <v>754</v>
-      </c>
-      <c r="F1150" t="s">
-        <v>755</v>
-      </c>
-      <c r="G1150" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="H1150">
-        <v>24980</v>
+        <v>34372</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B1151" t="s">
-        <v>26</v>
+        <v>721</v>
       </c>
       <c r="C1151" t="s">
         <v>699</v>
@@ -27507,16 +27521,16 @@
       <c r="D1151" t="s">
         <v>753</v>
       </c>
+      <c r="E1151" t="s">
+        <v>759</v>
+      </c>
       <c r="H1151">
-        <v>34496</v>
+        <v>34375</v>
       </c>
     </row>
     <row r="1152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1152" t="s">
-        <v>760</v>
-      </c>
       <c r="B1152" t="s">
-        <v>36</v>
+        <v>723</v>
       </c>
       <c r="C1152" t="s">
         <v>699</v>
@@ -27527,16 +27541,16 @@
       <c r="E1152" t="s">
         <v>759</v>
       </c>
+      <c r="F1152" t="s">
+        <v>762</v>
+      </c>
       <c r="H1152">
-        <v>34371</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="1153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1153" t="s">
-        <v>761</v>
-      </c>
       <c r="B1153" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1153" t="s">
         <v>699</v>
@@ -27547,16 +27561,19 @@
       <c r="E1153" t="s">
         <v>759</v>
       </c>
+      <c r="F1153" t="s">
+        <v>762</v>
+      </c>
       <c r="H1153">
-        <v>34372</v>
+        <v>34374</v>
       </c>
     </row>
     <row r="1154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>762</v>
+        <v>707</v>
       </c>
       <c r="B1154" t="s">
-        <v>721</v>
+        <v>9</v>
       </c>
       <c r="C1154" t="s">
         <v>699</v>
@@ -27567,11 +27584,17 @@
       <c r="E1154" t="s">
         <v>759</v>
       </c>
+      <c r="F1154" t="s">
+        <v>762</v>
+      </c>
       <c r="H1154">
-        <v>34375</v>
+        <v>33912</v>
       </c>
     </row>
     <row r="1155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>729</v>
+      </c>
       <c r="B1155" t="s">
         <v>723</v>
       </c>
@@ -27588,10 +27611,13 @@
         <v>762</v>
       </c>
       <c r="H1155">
-        <v>33917</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>763</v>
+      </c>
       <c r="B1156" t="s">
         <v>26</v>
       </c>
@@ -27607,16 +27633,19 @@
       <c r="F1156" t="s">
         <v>762</v>
       </c>
+      <c r="G1156" t="s">
+        <v>729</v>
+      </c>
       <c r="H1156">
-        <v>34374</v>
+        <v>34377</v>
       </c>
     </row>
     <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="B1157" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C1157" t="s">
         <v>699</v>
@@ -27630,16 +27659,19 @@
       <c r="F1157" t="s">
         <v>762</v>
       </c>
+      <c r="G1157" t="s">
+        <v>729</v>
+      </c>
       <c r="H1157">
-        <v>33912</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="B1158" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1158" t="s">
         <v>699</v>
@@ -27653,14 +27685,14 @@
       <c r="F1158" t="s">
         <v>762</v>
       </c>
+      <c r="G1158" t="s">
+        <v>729</v>
+      </c>
       <c r="H1158">
-        <v>24860</v>
+        <v>34367</v>
       </c>
     </row>
     <row r="1159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1159" t="s">
-        <v>763</v>
-      </c>
       <c r="B1159" t="s">
         <v>26</v>
       </c>
@@ -27680,12 +27712,12 @@
         <v>729</v>
       </c>
       <c r="H1159">
-        <v>34377</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="1160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B1160" t="s">
         <v>26</v>
@@ -27706,12 +27738,12 @@
         <v>729</v>
       </c>
       <c r="H1160">
-        <v>34367</v>
+        <v>34379</v>
       </c>
     </row>
     <row r="1161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1161" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1161" t="s">
         <v>699</v>
@@ -27729,15 +27761,15 @@
         <v>729</v>
       </c>
       <c r="H1161">
-        <v>34369</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>765</v>
+        <v>729</v>
       </c>
       <c r="B1162" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1162" t="s">
         <v>699</v>
@@ -27751,16 +27783,16 @@
       <c r="F1162" t="s">
         <v>762</v>
       </c>
-      <c r="G1162" t="s">
-        <v>729</v>
-      </c>
       <c r="H1162">
-        <v>34379</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>744</v>
+      </c>
       <c r="B1163" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1163" t="s">
         <v>699</v>
@@ -27778,15 +27810,15 @@
         <v>729</v>
       </c>
       <c r="H1163">
-        <v>22579</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="B1164" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1164" t="s">
         <v>699</v>
@@ -27800,16 +27832,16 @@
       <c r="F1164" t="s">
         <v>762</v>
       </c>
+      <c r="G1164" t="s">
+        <v>729</v>
+      </c>
       <c r="H1164">
-        <v>24860</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1165" t="s">
-        <v>744</v>
-      </c>
       <c r="B1165" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1165" t="s">
         <v>699</v>
@@ -27820,20 +27852,11 @@
       <c r="E1165" t="s">
         <v>759</v>
       </c>
-      <c r="F1165" t="s">
-        <v>762</v>
-      </c>
-      <c r="G1165" t="s">
-        <v>729</v>
-      </c>
       <c r="H1165">
-        <v>34357</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="1166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1166" t="s">
-        <v>745</v>
-      </c>
       <c r="B1166" t="s">
         <v>26</v>
       </c>
@@ -27846,19 +27869,16 @@
       <c r="E1166" t="s">
         <v>759</v>
       </c>
-      <c r="F1166" t="s">
-        <v>762</v>
-      </c>
-      <c r="G1166" t="s">
-        <v>729</v>
-      </c>
       <c r="H1166">
-        <v>34358</v>
+        <v>34374</v>
       </c>
     </row>
     <row r="1167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>707</v>
+      </c>
       <c r="B1167" t="s">
-        <v>723</v>
+        <v>9</v>
       </c>
       <c r="C1167" t="s">
         <v>699</v>
@@ -27870,12 +27890,15 @@
         <v>759</v>
       </c>
       <c r="H1167">
-        <v>33917</v>
+        <v>33912</v>
       </c>
     </row>
     <row r="1168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>729</v>
+      </c>
       <c r="B1168" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1168" t="s">
         <v>699</v>
@@ -27887,15 +27910,15 @@
         <v>759</v>
       </c>
       <c r="H1168">
-        <v>34374</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>707</v>
+        <v>763</v>
       </c>
       <c r="B1169" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1169" t="s">
         <v>699</v>
@@ -27906,16 +27929,19 @@
       <c r="E1169" t="s">
         <v>759</v>
       </c>
+      <c r="F1169" t="s">
+        <v>729</v>
+      </c>
       <c r="H1169">
-        <v>33912</v>
+        <v>34377</v>
       </c>
     </row>
     <row r="1170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="B1170" t="s">
-        <v>723</v>
+        <v>36</v>
       </c>
       <c r="C1170" t="s">
         <v>699</v>
@@ -27926,13 +27952,19 @@
       <c r="E1170" t="s">
         <v>759</v>
       </c>
+      <c r="F1170" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>763</v>
+      </c>
       <c r="H1170">
-        <v>24860</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B1171" t="s">
         <v>26</v>
@@ -27950,13 +27982,10 @@
         <v>729</v>
       </c>
       <c r="H1171">
-        <v>34377</v>
+        <v>34367</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1172" t="s">
-        <v>764</v>
-      </c>
       <c r="B1172" t="s">
         <v>26</v>
       </c>
@@ -27973,10 +28002,13 @@
         <v>729</v>
       </c>
       <c r="H1172">
-        <v>34367</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="1173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>765</v>
+      </c>
       <c r="B1173" t="s">
         <v>26</v>
       </c>
@@ -27993,15 +28025,12 @@
         <v>729</v>
       </c>
       <c r="H1173">
-        <v>34369</v>
+        <v>34379</v>
       </c>
     </row>
     <row r="1174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1174" t="s">
-        <v>765</v>
-      </c>
       <c r="B1174" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1174" t="s">
         <v>699</v>
@@ -28015,13 +28044,19 @@
       <c r="F1174" t="s">
         <v>729</v>
       </c>
+      <c r="G1174" t="s">
+        <v>765</v>
+      </c>
       <c r="H1174">
-        <v>34379</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>763</v>
+      </c>
       <c r="B1175" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1175" t="s">
         <v>699</v>
@@ -28032,22 +28067,16 @@
       <c r="E1175" t="s">
         <v>759</v>
       </c>
-      <c r="F1175" t="s">
-        <v>729</v>
-      </c>
-      <c r="G1175" t="s">
-        <v>765</v>
-      </c>
       <c r="H1175">
-        <v>22579</v>
+        <v>34377</v>
       </c>
     </row>
     <row r="1176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="B1176" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1176" t="s">
         <v>699</v>
@@ -28058,16 +28087,19 @@
       <c r="E1176" t="s">
         <v>759</v>
       </c>
+      <c r="F1176" t="s">
+        <v>763</v>
+      </c>
       <c r="H1176">
-        <v>34377</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="B1177" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1177" t="s">
         <v>699</v>
@@ -28079,10 +28111,13 @@
         <v>759</v>
       </c>
       <c r="H1177">
-        <v>34367</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>764</v>
+      </c>
       <c r="B1178" t="s">
         <v>26</v>
       </c>
@@ -28096,13 +28131,10 @@
         <v>759</v>
       </c>
       <c r="H1178">
-        <v>34369</v>
+        <v>34367</v>
       </c>
     </row>
     <row r="1179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1179" t="s">
-        <v>765</v>
-      </c>
       <c r="B1179" t="s">
         <v>26</v>
       </c>
@@ -28116,12 +28148,15 @@
         <v>759</v>
       </c>
       <c r="H1179">
-        <v>34379</v>
+        <v>34369</v>
       </c>
     </row>
     <row r="1180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>765</v>
+      </c>
       <c r="B1180" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1180" t="s">
         <v>699</v>
@@ -28132,11 +28167,8 @@
       <c r="E1180" t="s">
         <v>759</v>
       </c>
-      <c r="F1180" t="s">
-        <v>765</v>
-      </c>
       <c r="H1180">
-        <v>22579</v>
+        <v>34379</v>
       </c>
     </row>
     <row r="1181" spans="1:8" x14ac:dyDescent="0.25">
@@ -28152,16 +28184,16 @@
       <c r="E1181" t="s">
         <v>759</v>
       </c>
+      <c r="F1181" t="s">
+        <v>765</v>
+      </c>
       <c r="H1181">
         <v>22579</v>
       </c>
     </row>
     <row r="1182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1182" t="s">
-        <v>729</v>
-      </c>
       <c r="B1182" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C1182" t="s">
         <v>699</v>
@@ -28173,15 +28205,15 @@
         <v>759</v>
       </c>
       <c r="H1182">
-        <v>24860</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>766</v>
+        <v>729</v>
       </c>
       <c r="B1183" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1183" t="s">
         <v>699</v>
@@ -28193,12 +28225,12 @@
         <v>759</v>
       </c>
       <c r="H1183">
-        <v>34702</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B1184" t="s">
         <v>26</v>
@@ -28213,12 +28245,15 @@
         <v>759</v>
       </c>
       <c r="H1184">
-        <v>34704</v>
+        <v>34702</v>
       </c>
     </row>
     <row r="1185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>753</v>
+      </c>
       <c r="B1185" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1185" t="s">
         <v>699</v>
@@ -28229,13 +28264,16 @@
       <c r="E1185" t="s">
         <v>759</v>
       </c>
+      <c r="F1185" t="s">
+        <v>766</v>
+      </c>
       <c r="H1185">
-        <v>34676</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B1186" t="s">
         <v>26</v>
@@ -28250,12 +28288,12 @@
         <v>759</v>
       </c>
       <c r="H1186">
-        <v>34703</v>
+        <v>34704</v>
       </c>
     </row>
     <row r="1187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1187" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1187" t="s">
         <v>699</v>
@@ -28266,16 +28304,13 @@
       <c r="E1187" t="s">
         <v>759</v>
       </c>
-      <c r="F1187" t="s">
-        <v>768</v>
-      </c>
       <c r="H1187">
-        <v>22579</v>
+        <v>34676</v>
       </c>
     </row>
     <row r="1188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="B1188" t="s">
         <v>26</v>
@@ -28289,11 +28324,8 @@
       <c r="E1188" t="s">
         <v>759</v>
       </c>
-      <c r="F1188" t="s">
-        <v>729</v>
-      </c>
       <c r="H1188">
-        <v>34357</v>
+        <v>34703</v>
       </c>
     </row>
     <row r="1189" spans="1:8" x14ac:dyDescent="0.25">
@@ -28310,10 +28342,7 @@
         <v>759</v>
       </c>
       <c r="F1189" t="s">
-        <v>729</v>
-      </c>
-      <c r="G1189" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="H1189">
         <v>22579</v>
@@ -28335,6 +28364,9 @@
       <c r="E1190" t="s">
         <v>759</v>
       </c>
+      <c r="F1190" t="s">
+        <v>729</v>
+      </c>
       <c r="H1190">
         <v>34357</v>
       </c>
@@ -28353,6 +28385,9 @@
         <v>759</v>
       </c>
       <c r="F1191" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1191" t="s">
         <v>744</v>
       </c>
       <c r="H1191">
@@ -28361,7 +28396,7 @@
     </row>
     <row r="1192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B1192" t="s">
         <v>26</v>
@@ -28375,19 +28410,13 @@
       <c r="E1192" t="s">
         <v>759</v>
       </c>
-      <c r="F1192" t="s">
-        <v>729</v>
-      </c>
       <c r="H1192">
-        <v>34358</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="1193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1193" t="s">
-        <v>745</v>
-      </c>
       <c r="B1193" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1193" t="s">
         <v>699</v>
@@ -28398,16 +28427,19 @@
       <c r="E1193" t="s">
         <v>759</v>
       </c>
+      <c r="F1193" t="s">
+        <v>744</v>
+      </c>
       <c r="H1193">
-        <v>34358</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="B1194" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1194" t="s">
         <v>699</v>
@@ -28418,16 +28450,19 @@
       <c r="E1194" t="s">
         <v>759</v>
       </c>
+      <c r="F1194" t="s">
+        <v>729</v>
+      </c>
       <c r="H1194">
-        <v>34373</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="B1195" t="s">
-        <v>721</v>
+        <v>26</v>
       </c>
       <c r="C1195" t="s">
         <v>699</v>
@@ -28439,15 +28474,15 @@
         <v>759</v>
       </c>
       <c r="H1195">
-        <v>34356</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="1196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
-        <v>729</v>
+        <v>769</v>
       </c>
       <c r="B1196" t="s">
-        <v>723</v>
+        <v>36</v>
       </c>
       <c r="C1196" t="s">
         <v>699</v>
@@ -28458,19 +28493,16 @@
       <c r="E1196" t="s">
         <v>759</v>
       </c>
-      <c r="F1196" t="s">
-        <v>770</v>
-      </c>
       <c r="H1196">
-        <v>24860</v>
+        <v>34373</v>
       </c>
     </row>
     <row r="1197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B1197" t="s">
-        <v>26</v>
+        <v>721</v>
       </c>
       <c r="C1197" t="s">
         <v>699</v>
@@ -28481,22 +28513,16 @@
       <c r="E1197" t="s">
         <v>759</v>
       </c>
-      <c r="F1197" t="s">
-        <v>770</v>
-      </c>
-      <c r="G1197" t="s">
-        <v>729</v>
-      </c>
       <c r="H1197">
-        <v>34378</v>
+        <v>34356</v>
       </c>
     </row>
     <row r="1198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="B1198" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1198" t="s">
         <v>699</v>
@@ -28510,14 +28536,14 @@
       <c r="F1198" t="s">
         <v>770</v>
       </c>
-      <c r="G1198" t="s">
-        <v>729</v>
-      </c>
       <c r="H1198">
-        <v>34368</v>
+        <v>24860</v>
       </c>
     </row>
     <row r="1199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>771</v>
+      </c>
       <c r="B1199" t="s">
         <v>26</v>
       </c>
@@ -28537,15 +28563,15 @@
         <v>729</v>
       </c>
       <c r="H1199">
-        <v>34370</v>
+        <v>34378</v>
       </c>
     </row>
     <row r="1200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="B1200" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1200" t="s">
         <v>699</v>
@@ -28563,12 +28589,15 @@
         <v>729</v>
       </c>
       <c r="H1200">
-        <v>34380</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>772</v>
+      </c>
       <c r="B1201" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1201" t="s">
         <v>699</v>
@@ -28586,13 +28615,10 @@
         <v>729</v>
       </c>
       <c r="H1201">
-        <v>22579</v>
+        <v>34368</v>
       </c>
     </row>
     <row r="1202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1202" t="s">
-        <v>752</v>
-      </c>
       <c r="B1202" t="s">
         <v>26</v>
       </c>
@@ -28612,12 +28638,12 @@
         <v>729</v>
       </c>
       <c r="H1202">
-        <v>34360</v>
+        <v>34370</v>
       </c>
     </row>
     <row r="1203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B1203" t="s">
         <v>26</v>
@@ -28632,18 +28658,18 @@
         <v>759</v>
       </c>
       <c r="F1203" t="s">
+        <v>770</v>
+      </c>
+      <c r="G1203" t="s">
         <v>729</v>
       </c>
       <c r="H1203">
-        <v>34378</v>
+        <v>34380</v>
       </c>
     </row>
     <row r="1204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1204" t="s">
-        <v>772</v>
-      </c>
       <c r="B1204" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1204" t="s">
         <v>699</v>
@@ -28655,13 +28681,19 @@
         <v>759</v>
       </c>
       <c r="F1204" t="s">
+        <v>770</v>
+      </c>
+      <c r="G1204" t="s">
         <v>729</v>
       </c>
       <c r="H1204">
-        <v>34368</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>752</v>
+      </c>
       <c r="B1205" t="s">
         <v>26</v>
       </c>
@@ -28675,15 +28707,18 @@
         <v>759</v>
       </c>
       <c r="F1205" t="s">
+        <v>770</v>
+      </c>
+      <c r="G1205" t="s">
         <v>729</v>
       </c>
       <c r="H1205">
-        <v>34370</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B1206" t="s">
         <v>26</v>
@@ -28701,12 +28736,15 @@
         <v>729</v>
       </c>
       <c r="H1206">
-        <v>34380</v>
+        <v>34378</v>
       </c>
     </row>
     <row r="1207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>753</v>
+      </c>
       <c r="B1207" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C1207" t="s">
         <v>699</v>
@@ -28721,15 +28759,15 @@
         <v>729</v>
       </c>
       <c r="G1207" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H1207">
-        <v>22579</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B1208" t="s">
         <v>26</v>
@@ -28743,14 +28781,14 @@
       <c r="E1208" t="s">
         <v>759</v>
       </c>
+      <c r="F1208" t="s">
+        <v>729</v>
+      </c>
       <c r="H1208">
-        <v>34378</v>
+        <v>34368</v>
       </c>
     </row>
     <row r="1209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1209" t="s">
-        <v>772</v>
-      </c>
       <c r="B1209" t="s">
         <v>26</v>
       </c>
@@ -28763,11 +28801,17 @@
       <c r="E1209" t="s">
         <v>759</v>
       </c>
+      <c r="F1209" t="s">
+        <v>729</v>
+      </c>
       <c r="H1209">
-        <v>34368</v>
+        <v>34370</v>
       </c>
     </row>
     <row r="1210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>773</v>
+      </c>
       <c r="B1210" t="s">
         <v>26</v>
       </c>
@@ -28780,16 +28824,16 @@
       <c r="E1210" t="s">
         <v>759</v>
       </c>
+      <c r="F1210" t="s">
+        <v>729</v>
+      </c>
       <c r="H1210">
-        <v>34370</v>
+        <v>34380</v>
       </c>
     </row>
     <row r="1211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1211" t="s">
-        <v>773</v>
-      </c>
       <c r="B1211" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1211" t="s">
         <v>699</v>
@@ -28800,13 +28844,22 @@
       <c r="E1211" t="s">
         <v>759</v>
       </c>
+      <c r="F1211" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>773</v>
+      </c>
       <c r="H1211">
-        <v>34380</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>771</v>
+      </c>
       <c r="B1212" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1212" t="s">
         <v>699</v>
@@ -28817,19 +28870,16 @@
       <c r="E1212" t="s">
         <v>759</v>
       </c>
-      <c r="F1212" t="s">
-        <v>773</v>
-      </c>
       <c r="H1212">
-        <v>22579</v>
+        <v>34378</v>
       </c>
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B1213" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1213" t="s">
         <v>699</v>
@@ -28841,15 +28891,15 @@
         <v>759</v>
       </c>
       <c r="F1213" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="H1213">
-        <v>34360</v>
+        <v>24190</v>
       </c>
     </row>
     <row r="1214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="B1214" t="s">
         <v>26</v>
@@ -28864,26 +28914,29 @@
         <v>759</v>
       </c>
       <c r="H1214">
-        <v>34360</v>
+        <v>34368</v>
       </c>
     </row>
     <row r="1215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1215" t="s">
-        <v>774</v>
-      </c>
       <c r="B1215" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1215" t="s">
         <v>699</v>
       </c>
+      <c r="D1215" t="s">
+        <v>753</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>759</v>
+      </c>
       <c r="H1215">
-        <v>18244</v>
+        <v>34370</v>
       </c>
     </row>
     <row r="1216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B1216" t="s">
         <v>26</v>
@@ -28892,106 +28945,112 @@
         <v>699</v>
       </c>
       <c r="D1216" t="s">
-        <v>774</v>
+        <v>753</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>759</v>
       </c>
       <c r="H1216">
-        <v>19139</v>
+        <v>34380</v>
       </c>
     </row>
     <row r="1217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1217" t="s">
-        <v>776</v>
-      </c>
       <c r="B1217" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1217" t="s">
         <v>699</v>
       </c>
       <c r="D1217" t="s">
-        <v>774</v>
+        <v>753</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>759</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>773</v>
       </c>
       <c r="H1217">
-        <v>19140</v>
+        <v>22579</v>
       </c>
     </row>
     <row r="1218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="B1218" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1218" t="s">
         <v>699</v>
       </c>
+      <c r="D1218" t="s">
+        <v>753</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>759</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>729</v>
+      </c>
       <c r="H1218">
-        <v>18147</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="B1219" t="s">
-        <v>719</v>
+        <v>26</v>
       </c>
       <c r="C1219" t="s">
         <v>699</v>
       </c>
       <c r="D1219" t="s">
-        <v>777</v>
+        <v>753</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>759</v>
       </c>
       <c r="H1219">
-        <v>18791</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="1220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B1220" t="s">
-        <v>721</v>
+        <v>23</v>
       </c>
       <c r="C1220" t="s">
         <v>699</v>
       </c>
-      <c r="D1220" t="s">
-        <v>777</v>
-      </c>
-      <c r="E1220" t="s">
-        <v>778</v>
-      </c>
       <c r="H1220">
-        <v>18198</v>
+        <v>18244</v>
       </c>
     </row>
     <row r="1221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B1221" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1221" t="s">
         <v>699</v>
       </c>
       <c r="D1221" t="s">
-        <v>777</v>
-      </c>
-      <c r="E1221" t="s">
-        <v>778</v>
-      </c>
-      <c r="F1221" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="H1221">
-        <v>24436</v>
+        <v>19139</v>
       </c>
     </row>
     <row r="1222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B1222" t="s">
         <v>26</v>
@@ -29000,50 +29059,32 @@
         <v>699</v>
       </c>
       <c r="D1222" t="s">
-        <v>777</v>
-      </c>
-      <c r="E1222" t="s">
-        <v>778</v>
-      </c>
-      <c r="F1222" t="s">
-        <v>779</v>
-      </c>
-      <c r="G1222" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="H1222">
-        <v>24437</v>
+        <v>19140</v>
       </c>
     </row>
     <row r="1223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B1223" t="s">
-        <v>723</v>
+        <v>23</v>
       </c>
       <c r="C1223" t="s">
         <v>699</v>
       </c>
-      <c r="D1223" t="s">
-        <v>777</v>
-      </c>
-      <c r="E1223" t="s">
-        <v>778</v>
-      </c>
-      <c r="F1223" t="s">
-        <v>779</v>
-      </c>
       <c r="H1223">
-        <v>18172</v>
+        <v>18147</v>
       </c>
     </row>
     <row r="1224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B1224" t="s">
-        <v>26</v>
+        <v>719</v>
       </c>
       <c r="C1224" t="s">
         <v>699</v>
@@ -29051,25 +29092,16 @@
       <c r="D1224" t="s">
         <v>777</v>
       </c>
-      <c r="E1224" t="s">
-        <v>778</v>
-      </c>
-      <c r="F1224" t="s">
-        <v>779</v>
-      </c>
-      <c r="G1224" t="s">
-        <v>782</v>
-      </c>
       <c r="H1224">
-        <v>18166</v>
+        <v>18791</v>
       </c>
     </row>
     <row r="1225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B1225" t="s">
-        <v>26</v>
+        <v>721</v>
       </c>
       <c r="C1225" t="s">
         <v>699</v>
@@ -29080,22 +29112,16 @@
       <c r="E1225" t="s">
         <v>778</v>
       </c>
-      <c r="F1225" t="s">
-        <v>779</v>
-      </c>
-      <c r="G1225" t="s">
-        <v>782</v>
-      </c>
       <c r="H1225">
-        <v>18173</v>
+        <v>18198</v>
       </c>
     </row>
     <row r="1226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B1226" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1226" t="s">
         <v>699</v>
@@ -29109,16 +29135,13 @@
       <c r="F1226" t="s">
         <v>779</v>
       </c>
-      <c r="G1226" t="s">
-        <v>782</v>
-      </c>
       <c r="H1226">
-        <v>18174</v>
+        <v>24436</v>
       </c>
     </row>
     <row r="1227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B1227" t="s">
         <v>26</v>
@@ -29136,18 +29159,18 @@
         <v>779</v>
       </c>
       <c r="G1227" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H1227">
-        <v>18169</v>
+        <v>24437</v>
       </c>
     </row>
     <row r="1228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B1228" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1228" t="s">
         <v>699</v>
@@ -29161,16 +29184,13 @@
       <c r="F1228" t="s">
         <v>779</v>
       </c>
-      <c r="G1228" t="s">
-        <v>782</v>
-      </c>
       <c r="H1228">
-        <v>18170</v>
+        <v>18172</v>
       </c>
     </row>
     <row r="1229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B1229" t="s">
         <v>26</v>
@@ -29191,15 +29211,15 @@
         <v>782</v>
       </c>
       <c r="H1229">
-        <v>18171</v>
+        <v>18166</v>
       </c>
     </row>
     <row r="1230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>379</v>
+        <v>784</v>
       </c>
       <c r="B1230" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1230" t="s">
         <v>699</v>
@@ -29213,13 +29233,16 @@
       <c r="F1230" t="s">
         <v>779</v>
       </c>
+      <c r="G1230" t="s">
+        <v>782</v>
+      </c>
       <c r="H1230">
-        <v>9418</v>
+        <v>18173</v>
       </c>
     </row>
     <row r="1231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B1231" t="s">
         <v>26</v>
@@ -29237,18 +29260,18 @@
         <v>779</v>
       </c>
       <c r="G1231" t="s">
-        <v>379</v>
+        <v>782</v>
       </c>
       <c r="H1231">
-        <v>22015</v>
+        <v>18174</v>
       </c>
     </row>
     <row r="1232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B1232" t="s">
-        <v>721</v>
+        <v>26</v>
       </c>
       <c r="C1232" t="s">
         <v>699</v>
@@ -29259,16 +29282,22 @@
       <c r="E1232" t="s">
         <v>778</v>
       </c>
+      <c r="F1232" t="s">
+        <v>779</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>782</v>
+      </c>
       <c r="H1232">
-        <v>18197</v>
+        <v>18169</v>
       </c>
     </row>
     <row r="1233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>404</v>
+        <v>787</v>
       </c>
       <c r="B1233" t="s">
-        <v>723</v>
+        <v>26</v>
       </c>
       <c r="C1233" t="s">
         <v>699</v>
@@ -29280,15 +29309,18 @@
         <v>778</v>
       </c>
       <c r="F1233" t="s">
-        <v>790</v>
+        <v>779</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>782</v>
       </c>
       <c r="H1233">
-        <v>17802</v>
+        <v>18170</v>
       </c>
     </row>
     <row r="1234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B1234" t="s">
         <v>26</v>
@@ -29303,49 +29335,67 @@
         <v>778</v>
       </c>
       <c r="F1234" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="G1234" t="s">
-        <v>404</v>
+        <v>782</v>
       </c>
       <c r="H1234">
-        <v>22021</v>
+        <v>18171</v>
       </c>
     </row>
     <row r="1235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>792</v>
+        <v>379</v>
       </c>
       <c r="B1235" t="s">
-        <v>23</v>
+        <v>723</v>
       </c>
       <c r="C1235" t="s">
         <v>699</v>
       </c>
+      <c r="D1235" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>779</v>
+      </c>
       <c r="H1235">
-        <v>22227</v>
+        <v>9418</v>
       </c>
     </row>
     <row r="1236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B1236" t="s">
-        <v>719</v>
+        <v>26</v>
       </c>
       <c r="C1236" t="s">
         <v>699</v>
       </c>
       <c r="D1236" t="s">
-        <v>792</v>
+        <v>777</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>779</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>379</v>
       </c>
       <c r="H1236">
-        <v>24532</v>
+        <v>22015</v>
       </c>
     </row>
     <row r="1237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B1237" t="s">
         <v>721</v>
@@ -29354,18 +29404,18 @@
         <v>699</v>
       </c>
       <c r="D1237" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="E1237" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="H1237">
-        <v>18196</v>
+        <v>18197</v>
       </c>
     </row>
     <row r="1238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="B1238" t="s">
         <v>723</v>
@@ -29374,21 +29424,21 @@
         <v>699</v>
       </c>
       <c r="D1238" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="E1238" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="F1238" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="H1238">
-        <v>12499</v>
+        <v>17802</v>
       </c>
     </row>
     <row r="1239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B1239" t="s">
         <v>26</v>
@@ -29397,50 +29447,41 @@
         <v>699</v>
       </c>
       <c r="D1239" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="E1239" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="F1239" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G1239" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="H1239">
-        <v>18161</v>
+        <v>22021</v>
       </c>
     </row>
     <row r="1240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B1240" t="s">
-        <v>723</v>
+        <v>23</v>
       </c>
       <c r="C1240" t="s">
         <v>699</v>
       </c>
-      <c r="D1240" t="s">
-        <v>792</v>
-      </c>
-      <c r="E1240" t="s">
-        <v>793</v>
-      </c>
-      <c r="F1240" t="s">
-        <v>794</v>
-      </c>
       <c r="H1240">
-        <v>9339</v>
+        <v>22227</v>
       </c>
     </row>
     <row r="1241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B1241" t="s">
-        <v>26</v>
+        <v>719</v>
       </c>
       <c r="C1241" t="s">
         <v>699</v>
@@ -29448,25 +29489,16 @@
       <c r="D1241" t="s">
         <v>792</v>
       </c>
-      <c r="E1241" t="s">
-        <v>793</v>
-      </c>
-      <c r="F1241" t="s">
-        <v>794</v>
-      </c>
-      <c r="G1241" t="s">
-        <v>796</v>
-      </c>
       <c r="H1241">
-        <v>22016</v>
+        <v>24532</v>
       </c>
     </row>
     <row r="1242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B1242" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C1242" t="s">
         <v>699</v>
@@ -29477,19 +29509,16 @@
       <c r="E1242" t="s">
         <v>793</v>
       </c>
-      <c r="F1242" t="s">
-        <v>794</v>
-      </c>
       <c r="H1242">
-        <v>18202</v>
+        <v>18196</v>
       </c>
     </row>
     <row r="1243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>799</v>
+        <v>445</v>
       </c>
       <c r="B1243" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1243" t="s">
         <v>699</v>
@@ -29503,19 +29532,16 @@
       <c r="F1243" t="s">
         <v>794</v>
       </c>
-      <c r="G1243" t="s">
-        <v>798</v>
-      </c>
       <c r="H1243">
-        <v>18159</v>
+        <v>12499</v>
       </c>
     </row>
     <row r="1244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B1244" t="s">
-        <v>721</v>
+        <v>26</v>
       </c>
       <c r="C1244" t="s">
         <v>699</v>
@@ -29526,13 +29552,19 @@
       <c r="E1244" t="s">
         <v>793</v>
       </c>
+      <c r="F1244" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>445</v>
+      </c>
       <c r="H1244">
-        <v>22019</v>
+        <v>18161</v>
       </c>
     </row>
     <row r="1245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B1245" t="s">
         <v>723</v>
@@ -29547,15 +29579,15 @@
         <v>793</v>
       </c>
       <c r="F1245" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="H1245">
-        <v>24209</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="1246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B1246" t="s">
         <v>26</v>
@@ -29570,18 +29602,18 @@
         <v>793</v>
       </c>
       <c r="F1246" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="G1246" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="H1246">
-        <v>24212</v>
+        <v>22016</v>
       </c>
     </row>
     <row r="1247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B1247" t="s">
         <v>723</v>
@@ -29596,15 +29628,15 @@
         <v>793</v>
       </c>
       <c r="F1247" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="H1247">
-        <v>18848</v>
+        <v>18202</v>
       </c>
     </row>
     <row r="1248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B1248" t="s">
         <v>26</v>
@@ -29619,21 +29651,21 @@
         <v>793</v>
       </c>
       <c r="F1248" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="G1248" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="H1248">
-        <v>22017</v>
+        <v>18159</v>
       </c>
     </row>
     <row r="1249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B1249" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C1249" t="s">
         <v>699</v>
@@ -29644,19 +29676,16 @@
       <c r="E1249" t="s">
         <v>793</v>
       </c>
-      <c r="F1249" t="s">
-        <v>800</v>
-      </c>
       <c r="H1249">
-        <v>18847</v>
+        <v>22019</v>
       </c>
     </row>
     <row r="1250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B1250" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1250" t="s">
         <v>699</v>
@@ -29670,44 +29699,62 @@
       <c r="F1250" t="s">
         <v>800</v>
       </c>
-      <c r="G1250" t="s">
-        <v>805</v>
-      </c>
       <c r="H1250">
-        <v>22018</v>
+        <v>24209</v>
       </c>
     </row>
     <row r="1251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B1251" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1251" t="s">
         <v>699</v>
       </c>
+      <c r="D1251" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>793</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>800</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>801</v>
+      </c>
       <c r="H1251">
-        <v>106</v>
+        <v>24212</v>
       </c>
     </row>
     <row r="1252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B1252" t="s">
-        <v>23</v>
+        <v>723</v>
       </c>
       <c r="C1252" t="s">
         <v>699</v>
       </c>
+      <c r="D1252" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>793</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>800</v>
+      </c>
       <c r="H1252">
-        <v>20802</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="1253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B1253" t="s">
         <v>26</v>
@@ -29716,86 +29763,101 @@
         <v>699</v>
       </c>
       <c r="D1253" t="s">
-        <v>808</v>
+        <v>792</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>793</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>800</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>803</v>
       </c>
       <c r="H1253">
-        <v>24423</v>
+        <v>22017</v>
       </c>
     </row>
     <row r="1254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B1254" t="s">
-        <v>26</v>
+        <v>723</v>
       </c>
       <c r="C1254" t="s">
         <v>699</v>
       </c>
       <c r="D1254" t="s">
-        <v>808</v>
+        <v>792</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>793</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>800</v>
       </c>
       <c r="H1254">
-        <v>33755</v>
+        <v>18847</v>
       </c>
     </row>
     <row r="1255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>408</v>
+        <v>806</v>
       </c>
       <c r="B1255" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1255" t="s">
         <v>699</v>
       </c>
       <c r="D1255" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="E1255" t="s">
-        <v>810</v>
+        <v>793</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>800</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>805</v>
       </c>
       <c r="H1255">
-        <v>33756</v>
+        <v>22018</v>
       </c>
     </row>
     <row r="1256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B1256" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1256" t="s">
         <v>699</v>
       </c>
-      <c r="D1256" t="s">
-        <v>808</v>
-      </c>
       <c r="H1256">
-        <v>24850</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B1257" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1257" t="s">
         <v>699</v>
       </c>
-      <c r="D1257" t="s">
-        <v>808</v>
-      </c>
       <c r="H1257">
-        <v>25368</v>
+        <v>20802</v>
       </c>
     </row>
     <row r="1258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B1258" t="s">
         <v>26</v>
@@ -29807,12 +29869,12 @@
         <v>808</v>
       </c>
       <c r="H1258">
-        <v>24207</v>
+        <v>24423</v>
       </c>
     </row>
     <row r="1259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B1259" t="s">
         <v>26</v>
@@ -29824,15 +29886,15 @@
         <v>808</v>
       </c>
       <c r="H1259">
-        <v>24952</v>
+        <v>33755</v>
       </c>
     </row>
     <row r="1260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>815</v>
+        <v>408</v>
       </c>
       <c r="B1260" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1260" t="s">
         <v>699</v>
@@ -29840,13 +29902,19 @@
       <c r="D1260" t="s">
         <v>808</v>
       </c>
+      <c r="E1260" t="s">
+        <v>810</v>
+      </c>
       <c r="H1260">
-        <v>24424</v>
+        <v>33756</v>
       </c>
     </row>
     <row r="1261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>811</v>
+      </c>
       <c r="B1261" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1261" t="s">
         <v>699</v>
@@ -29854,16 +29922,13 @@
       <c r="D1261" t="s">
         <v>808</v>
       </c>
-      <c r="E1261" t="s">
-        <v>815</v>
-      </c>
       <c r="H1261">
-        <v>24421</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="1262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B1262" t="s">
         <v>26</v>
@@ -29875,12 +29940,12 @@
         <v>808</v>
       </c>
       <c r="H1262">
-        <v>22547</v>
+        <v>25368</v>
       </c>
     </row>
     <row r="1263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B1263" t="s">
         <v>26</v>
@@ -29892,12 +29957,12 @@
         <v>808</v>
       </c>
       <c r="H1263">
-        <v>20511</v>
+        <v>24207</v>
       </c>
     </row>
     <row r="1264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B1264" t="s">
         <v>26</v>
@@ -29909,15 +29974,15 @@
         <v>808</v>
       </c>
       <c r="H1264">
-        <v>34138</v>
+        <v>24952</v>
       </c>
     </row>
     <row r="1265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B1265" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1265" t="s">
         <v>699</v>
@@ -29925,19 +29990,13 @@
       <c r="D1265" t="s">
         <v>808</v>
       </c>
-      <c r="E1265" t="s">
-        <v>818</v>
-      </c>
       <c r="H1265">
-        <v>34139</v>
+        <v>24424</v>
       </c>
     </row>
     <row r="1266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1266" t="s">
-        <v>820</v>
-      </c>
       <c r="B1266" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1266" t="s">
         <v>699</v>
@@ -29945,16 +30004,19 @@
       <c r="D1266" t="s">
         <v>808</v>
       </c>
+      <c r="E1266" t="s">
+        <v>815</v>
+      </c>
       <c r="H1266">
-        <v>27331</v>
+        <v>24421</v>
       </c>
     </row>
     <row r="1267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B1267" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1267" t="s">
         <v>699</v>
@@ -29962,19 +30024,16 @@
       <c r="D1267" t="s">
         <v>808</v>
       </c>
-      <c r="E1267" t="s">
-        <v>820</v>
-      </c>
       <c r="H1267">
-        <v>27363</v>
+        <v>22547</v>
       </c>
     </row>
     <row r="1268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B1268" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1268" t="s">
         <v>699</v>
@@ -29982,19 +30041,16 @@
       <c r="D1268" t="s">
         <v>808</v>
       </c>
-      <c r="E1268" t="s">
-        <v>820</v>
-      </c>
       <c r="H1268">
-        <v>27364</v>
+        <v>20511</v>
       </c>
     </row>
     <row r="1269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B1269" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1269" t="s">
         <v>699</v>
@@ -30002,16 +30058,13 @@
       <c r="D1269" t="s">
         <v>808</v>
       </c>
-      <c r="E1269" t="s">
-        <v>820</v>
-      </c>
       <c r="H1269">
-        <v>27365</v>
+        <v>34138</v>
       </c>
     </row>
     <row r="1270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B1270" t="s">
         <v>9</v>
@@ -30023,15 +30076,15 @@
         <v>808</v>
       </c>
       <c r="E1270" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="H1270">
-        <v>27366</v>
+        <v>34139</v>
       </c>
     </row>
     <row r="1271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B1271" t="s">
         <v>26</v>
@@ -30043,15 +30096,15 @@
         <v>808</v>
       </c>
       <c r="H1271">
-        <v>18158</v>
+        <v>27331</v>
       </c>
     </row>
     <row r="1272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B1272" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1272" t="s">
         <v>699</v>
@@ -30059,61 +30112,76 @@
       <c r="D1272" t="s">
         <v>808</v>
       </c>
+      <c r="E1272" t="s">
+        <v>820</v>
+      </c>
       <c r="H1272">
-        <v>26945</v>
+        <v>27363</v>
       </c>
     </row>
     <row r="1273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B1273" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C1273" t="s">
         <v>699</v>
       </c>
+      <c r="D1273" t="s">
+        <v>808</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>820</v>
+      </c>
       <c r="H1273">
-        <v>27265</v>
+        <v>27364</v>
       </c>
     </row>
     <row r="1274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B1274" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1274" t="s">
         <v>699</v>
       </c>
       <c r="D1274" t="s">
-        <v>827</v>
+        <v>808</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>820</v>
       </c>
       <c r="H1274">
-        <v>27266</v>
+        <v>27365</v>
       </c>
     </row>
     <row r="1275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B1275" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C1275" t="s">
         <v>699</v>
       </c>
       <c r="D1275" t="s">
-        <v>827</v>
+        <v>808</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>820</v>
       </c>
       <c r="H1275">
-        <v>27267</v>
+        <v>27366</v>
       </c>
     </row>
     <row r="1276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B1276" t="s">
         <v>26</v>
@@ -30122,131 +30190,125 @@
         <v>699</v>
       </c>
       <c r="D1276" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="H1276">
-        <v>27268</v>
+        <v>18158</v>
       </c>
     </row>
     <row r="1277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
-        <v>442</v>
+        <v>826</v>
       </c>
       <c r="B1277" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C1277" t="s">
         <v>699</v>
       </c>
+      <c r="D1277" t="s">
+        <v>808</v>
+      </c>
       <c r="H1277">
-        <v>11323</v>
+        <v>26945</v>
       </c>
     </row>
     <row r="1278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B1278" t="s">
-        <v>832</v>
+        <v>23</v>
       </c>
       <c r="C1278" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1278" t="s">
-        <v>833</v>
+        <v>699</v>
       </c>
       <c r="H1278">
-        <v>18794</v>
+        <v>27265</v>
       </c>
     </row>
     <row r="1279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B1279" t="s">
-        <v>832</v>
+        <v>26</v>
       </c>
       <c r="C1279" t="s">
-        <v>833</v>
+        <v>699</v>
       </c>
       <c r="D1279" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="H1279">
-        <v>18795</v>
+        <v>27266</v>
       </c>
     </row>
     <row r="1280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B1280" t="s">
-        <v>832</v>
+        <v>26</v>
       </c>
       <c r="C1280" t="s">
-        <v>833</v>
+        <v>699</v>
       </c>
       <c r="D1280" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="H1280">
-        <v>18796</v>
+        <v>27267</v>
       </c>
     </row>
     <row r="1281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B1281" t="s">
-        <v>832</v>
+        <v>26</v>
       </c>
       <c r="C1281" t="s">
-        <v>833</v>
+        <v>699</v>
       </c>
       <c r="D1281" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="H1281">
-        <v>21517</v>
+        <v>27268</v>
       </c>
     </row>
     <row r="1282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>837</v>
+        <v>407</v>
       </c>
       <c r="B1282" t="s">
-        <v>832</v>
+        <v>9</v>
       </c>
       <c r="C1282" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1282" t="s">
-        <v>833</v>
+        <v>699</v>
       </c>
       <c r="H1282">
-        <v>17922</v>
+        <v>27302</v>
       </c>
     </row>
     <row r="1283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>838</v>
+        <v>442</v>
       </c>
       <c r="B1283" t="s">
-        <v>832</v>
+        <v>9</v>
       </c>
       <c r="C1283" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1283" t="s">
-        <v>833</v>
+        <v>699</v>
       </c>
       <c r="H1283">
-        <v>15146</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="1284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B1284" t="s">
         <v>832</v>
@@ -30258,12 +30320,12 @@
         <v>833</v>
       </c>
       <c r="H1284">
-        <v>17963</v>
+        <v>18794</v>
       </c>
     </row>
     <row r="1285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B1285" t="s">
         <v>832</v>
@@ -30275,12 +30337,12 @@
         <v>833</v>
       </c>
       <c r="H1285">
-        <v>18797</v>
+        <v>18795</v>
       </c>
     </row>
     <row r="1286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B1286" t="s">
         <v>832</v>
@@ -30292,12 +30354,12 @@
         <v>833</v>
       </c>
       <c r="H1286">
-        <v>18798</v>
+        <v>18796</v>
       </c>
     </row>
     <row r="1287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B1287" t="s">
         <v>832</v>
@@ -30309,12 +30371,12 @@
         <v>833</v>
       </c>
       <c r="H1287">
-        <v>14388</v>
+        <v>21517</v>
       </c>
     </row>
     <row r="1288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B1288" t="s">
         <v>832</v>
@@ -30326,12 +30388,12 @@
         <v>833</v>
       </c>
       <c r="H1288">
-        <v>17957</v>
+        <v>17922</v>
       </c>
     </row>
     <row r="1289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B1289" t="s">
         <v>832</v>
@@ -30343,12 +30405,12 @@
         <v>833</v>
       </c>
       <c r="H1289">
-        <v>17959</v>
+        <v>15146</v>
       </c>
     </row>
     <row r="1290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B1290" t="s">
         <v>832</v>
@@ -30360,12 +30422,12 @@
         <v>833</v>
       </c>
       <c r="H1290">
-        <v>17960</v>
+        <v>17963</v>
       </c>
     </row>
     <row r="1291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B1291" t="s">
         <v>832</v>
@@ -30377,12 +30439,12 @@
         <v>833</v>
       </c>
       <c r="H1291">
-        <v>17958</v>
+        <v>18797</v>
       </c>
     </row>
     <row r="1292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B1292" t="s">
         <v>832</v>
@@ -30394,12 +30456,12 @@
         <v>833</v>
       </c>
       <c r="H1292">
-        <v>17943</v>
+        <v>18798</v>
       </c>
     </row>
     <row r="1293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B1293" t="s">
         <v>832</v>
@@ -30411,12 +30473,12 @@
         <v>833</v>
       </c>
       <c r="H1293">
-        <v>19797</v>
+        <v>14388</v>
       </c>
     </row>
     <row r="1294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B1294" t="s">
         <v>832</v>
@@ -30428,12 +30490,12 @@
         <v>833</v>
       </c>
       <c r="H1294">
-        <v>14390</v>
+        <v>17957</v>
       </c>
     </row>
     <row r="1295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B1295" t="s">
         <v>832</v>
@@ -30445,12 +30507,12 @@
         <v>833</v>
       </c>
       <c r="H1295">
-        <v>17948</v>
+        <v>17959</v>
       </c>
     </row>
     <row r="1296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B1296" t="s">
         <v>832</v>
@@ -30462,10 +30524,13 @@
         <v>833</v>
       </c>
       <c r="H1296">
-        <v>18802</v>
+        <v>17960</v>
       </c>
     </row>
     <row r="1297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>846</v>
+      </c>
       <c r="B1297" t="s">
         <v>832</v>
       </c>
@@ -30476,15 +30541,15 @@
         <v>833</v>
       </c>
       <c r="H1297">
-        <v>21315</v>
+        <v>17958</v>
       </c>
     </row>
     <row r="1298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B1298" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1298" t="s">
         <v>833</v>
@@ -30493,12 +30558,15 @@
         <v>833</v>
       </c>
       <c r="H1298">
-        <v>7232</v>
+        <v>17943</v>
       </c>
     </row>
     <row r="1299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>848</v>
+      </c>
       <c r="B1299" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1299" t="s">
         <v>833</v>
@@ -30507,15 +30575,15 @@
         <v>833</v>
       </c>
       <c r="H1299">
-        <v>7230</v>
+        <v>19797</v>
       </c>
     </row>
     <row r="1300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B1300" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1300" t="s">
         <v>833</v>
@@ -30524,12 +30592,15 @@
         <v>833</v>
       </c>
       <c r="H1300">
-        <v>21325</v>
+        <v>14390</v>
       </c>
     </row>
     <row r="1301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>850</v>
+      </c>
       <c r="B1301" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1301" t="s">
         <v>833</v>
@@ -30538,15 +30609,15 @@
         <v>833</v>
       </c>
       <c r="H1301">
-        <v>21326</v>
+        <v>17948</v>
       </c>
     </row>
     <row r="1302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>209</v>
+        <v>851</v>
       </c>
       <c r="B1302" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1302" t="s">
         <v>833</v>
@@ -30555,15 +30626,12 @@
         <v>833</v>
       </c>
       <c r="H1302">
-        <v>7234</v>
+        <v>18802</v>
       </c>
     </row>
     <row r="1303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1303" t="s">
-        <v>854</v>
-      </c>
       <c r="B1303" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1303" t="s">
         <v>833</v>
@@ -30572,15 +30640,15 @@
         <v>833</v>
       </c>
       <c r="H1303">
-        <v>7233</v>
+        <v>21315</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
-        <v>179</v>
+        <v>852</v>
       </c>
       <c r="B1304" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1304" t="s">
         <v>833</v>
@@ -30589,13 +30657,10 @@
         <v>833</v>
       </c>
       <c r="H1304">
-        <v>17786</v>
+        <v>7232</v>
       </c>
     </row>
     <row r="1305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1305" t="s">
-        <v>180</v>
-      </c>
       <c r="B1305" t="s">
         <v>9</v>
       </c>
@@ -30605,16 +30670,13 @@
       <c r="D1305" t="s">
         <v>833</v>
       </c>
-      <c r="F1305" t="s">
-        <v>179</v>
-      </c>
       <c r="H1305">
-        <v>1554</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="1306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>181</v>
+        <v>853</v>
       </c>
       <c r="B1306" t="s">
         <v>9</v>
@@ -30625,19 +30687,13 @@
       <c r="D1306" t="s">
         <v>833</v>
       </c>
-      <c r="F1306" t="s">
-        <v>179</v>
-      </c>
       <c r="H1306">
-        <v>21317</v>
+        <v>21325</v>
       </c>
     </row>
     <row r="1307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1307" t="s">
-        <v>182</v>
-      </c>
       <c r="B1307" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1307" t="s">
         <v>833</v>
@@ -30645,19 +30701,16 @@
       <c r="D1307" t="s">
         <v>833</v>
       </c>
-      <c r="F1307" t="s">
-        <v>179</v>
-      </c>
       <c r="H1307">
-        <v>22639</v>
+        <v>21326</v>
       </c>
     </row>
     <row r="1308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B1308" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1308" t="s">
         <v>833</v>
@@ -30666,12 +30719,12 @@
         <v>833</v>
       </c>
       <c r="H1308">
-        <v>17252</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="1309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>223</v>
+        <v>854</v>
       </c>
       <c r="B1309" t="s">
         <v>9</v>
@@ -30682,19 +30735,16 @@
       <c r="D1309" t="s">
         <v>833</v>
       </c>
-      <c r="F1309" t="s">
-        <v>222</v>
-      </c>
       <c r="H1309">
-        <v>6570</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="1310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B1310" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1310" t="s">
         <v>833</v>
@@ -30702,16 +30752,13 @@
       <c r="D1310" t="s">
         <v>833</v>
       </c>
-      <c r="F1310" t="s">
-        <v>222</v>
-      </c>
       <c r="H1310">
-        <v>6553</v>
+        <v>17786</v>
       </c>
     </row>
     <row r="1311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B1311" t="s">
         <v>9</v>
@@ -30723,49 +30770,58 @@
         <v>833</v>
       </c>
       <c r="F1311" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="H1311">
-        <v>7237</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>855</v>
+        <v>181</v>
       </c>
       <c r="B1312" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>833</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1312">
+        <v>21317</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1313" t="s">
         <v>16</v>
       </c>
-      <c r="C1312" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1312" t="s">
-        <v>833</v>
-      </c>
-      <c r="H1312">
-        <v>7235</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1313" t="s">
-        <v>832</v>
-      </c>
       <c r="C1313" t="s">
         <v>833</v>
       </c>
       <c r="D1313" t="s">
         <v>833</v>
       </c>
+      <c r="F1313" t="s">
+        <v>179</v>
+      </c>
       <c r="H1313">
-        <v>21316</v>
+        <v>22639</v>
       </c>
     </row>
     <row r="1314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="B1314" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C1314" t="s">
         <v>833</v>
@@ -30774,12 +30830,12 @@
         <v>833</v>
       </c>
       <c r="H1314">
-        <v>21323</v>
+        <v>17252</v>
       </c>
     </row>
     <row r="1315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>856</v>
+        <v>223</v>
       </c>
       <c r="B1315" t="s">
         <v>9</v>
@@ -30790,13 +30846,19 @@
       <c r="D1315" t="s">
         <v>833</v>
       </c>
+      <c r="F1315" t="s">
+        <v>222</v>
+      </c>
       <c r="H1315">
-        <v>21324</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="1316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>224</v>
+      </c>
       <c r="B1316" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="C1316" t="s">
         <v>833</v>
@@ -30804,11 +30866,17 @@
       <c r="D1316" t="s">
         <v>833</v>
       </c>
+      <c r="F1316" t="s">
+        <v>222</v>
+      </c>
       <c r="H1316">
-        <v>21320</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="1317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>225</v>
+      </c>
       <c r="B1317" t="s">
         <v>9</v>
       </c>
@@ -30818,13 +30886,19 @@
       <c r="D1317" t="s">
         <v>833</v>
       </c>
+      <c r="F1317" t="s">
+        <v>222</v>
+      </c>
       <c r="H1317">
-        <v>21321</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="1318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>855</v>
+      </c>
       <c r="B1318" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1318" t="s">
         <v>833</v>
@@ -30833,13 +30907,10 @@
         <v>833</v>
       </c>
       <c r="H1318">
-        <v>21322</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="1319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1319" t="s">
-        <v>857</v>
-      </c>
       <c r="B1319" t="s">
         <v>832</v>
       </c>
@@ -30850,10 +30921,13 @@
         <v>833</v>
       </c>
       <c r="H1319">
-        <v>18799</v>
+        <v>21316</v>
       </c>
     </row>
     <row r="1320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>140</v>
+      </c>
       <c r="B1320" t="s">
         <v>9</v>
       </c>
@@ -30863,14 +30937,14 @@
       <c r="D1320" t="s">
         <v>833</v>
       </c>
-      <c r="E1320" t="s">
-        <v>857</v>
-      </c>
       <c r="H1320">
-        <v>7230</v>
+        <v>21323</v>
       </c>
     </row>
     <row r="1321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>856</v>
+      </c>
       <c r="B1321" t="s">
         <v>9</v>
       </c>
@@ -30880,16 +30954,13 @@
       <c r="D1321" t="s">
         <v>833</v>
       </c>
-      <c r="E1321" t="s">
-        <v>857</v>
-      </c>
       <c r="H1321">
-        <v>7692</v>
+        <v>21324</v>
       </c>
     </row>
     <row r="1322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1322" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C1322" t="s">
         <v>833</v>
@@ -30897,11 +30968,8 @@
       <c r="D1322" t="s">
         <v>833</v>
       </c>
-      <c r="E1322" t="s">
-        <v>857</v>
-      </c>
       <c r="H1322">
-        <v>21327</v>
+        <v>21320</v>
       </c>
     </row>
     <row r="1323" spans="1:8" x14ac:dyDescent="0.25">
@@ -30914,17 +30982,11 @@
       <c r="D1323" t="s">
         <v>833</v>
       </c>
-      <c r="E1323" t="s">
-        <v>857</v>
-      </c>
       <c r="H1323">
-        <v>21328</v>
+        <v>21321</v>
       </c>
     </row>
     <row r="1324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1324" t="s">
-        <v>858</v>
-      </c>
       <c r="B1324" t="s">
         <v>9</v>
       </c>
@@ -30934,16 +30996,13 @@
       <c r="D1324" t="s">
         <v>833</v>
       </c>
-      <c r="E1324" t="s">
-        <v>857</v>
-      </c>
       <c r="H1324">
-        <v>6569</v>
+        <v>21322</v>
       </c>
     </row>
     <row r="1325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B1325" t="s">
         <v>832</v>
@@ -30955,13 +31014,10 @@
         <v>833</v>
       </c>
       <c r="H1325">
-        <v>21026</v>
+        <v>18799</v>
       </c>
     </row>
     <row r="1326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1326" t="s">
-        <v>860</v>
-      </c>
       <c r="B1326" t="s">
         <v>9</v>
       </c>
@@ -30972,15 +31028,15 @@
         <v>833</v>
       </c>
       <c r="E1326" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="H1326">
-        <v>21024</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="1327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1327" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1327" t="s">
         <v>833</v>
@@ -30989,15 +31045,15 @@
         <v>833</v>
       </c>
       <c r="E1327" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="H1327">
-        <v>21318</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="1328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1328" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1328" t="s">
         <v>833</v>
@@ -31006,18 +31062,15 @@
         <v>833</v>
       </c>
       <c r="E1328" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="H1328">
-        <v>21319</v>
+        <v>21327</v>
       </c>
     </row>
     <row r="1329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1329" t="s">
-        <v>179</v>
-      </c>
       <c r="B1329" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1329" t="s">
         <v>833</v>
@@ -31026,15 +31079,15 @@
         <v>833</v>
       </c>
       <c r="E1329" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="H1329">
-        <v>17786</v>
+        <v>21328</v>
       </c>
     </row>
     <row r="1330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>180</v>
+        <v>858</v>
       </c>
       <c r="B1330" t="s">
         <v>9</v>
@@ -31046,21 +31099,18 @@
         <v>833</v>
       </c>
       <c r="E1330" t="s">
-        <v>859</v>
-      </c>
-      <c r="F1330" t="s">
-        <v>179</v>
+        <v>857</v>
       </c>
       <c r="H1330">
-        <v>1554</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="1331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
-        <v>181</v>
+        <v>859</v>
       </c>
       <c r="B1331" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1331" t="s">
         <v>833</v>
@@ -31068,22 +31118,16 @@
       <c r="D1331" t="s">
         <v>833</v>
       </c>
-      <c r="E1331" t="s">
-        <v>859</v>
-      </c>
-      <c r="F1331" t="s">
-        <v>179</v>
-      </c>
       <c r="H1331">
-        <v>21317</v>
+        <v>21026</v>
       </c>
     </row>
     <row r="1332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>182</v>
+        <v>860</v>
       </c>
       <c r="B1332" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1332" t="s">
         <v>833</v>
@@ -31094,19 +31138,13 @@
       <c r="E1332" t="s">
         <v>859</v>
       </c>
-      <c r="F1332" t="s">
-        <v>179</v>
-      </c>
       <c r="H1332">
-        <v>22639</v>
+        <v>21024</v>
       </c>
     </row>
     <row r="1333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1333" t="s">
-        <v>861</v>
-      </c>
       <c r="B1333" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1333" t="s">
         <v>833</v>
@@ -31118,15 +31156,12 @@
         <v>859</v>
       </c>
       <c r="H1333">
-        <v>21025</v>
+        <v>21318</v>
       </c>
     </row>
     <row r="1334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1334" t="s">
-        <v>862</v>
-      </c>
       <c r="B1334" t="s">
-        <v>832</v>
+        <v>16</v>
       </c>
       <c r="C1334" t="s">
         <v>833</v>
@@ -31134,16 +31169,19 @@
       <c r="D1334" t="s">
         <v>833</v>
       </c>
+      <c r="E1334" t="s">
+        <v>859</v>
+      </c>
       <c r="H1334">
-        <v>21330</v>
+        <v>21319</v>
       </c>
     </row>
     <row r="1335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>863</v>
+        <v>179</v>
       </c>
       <c r="B1335" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C1335" t="s">
         <v>833</v>
@@ -31152,15 +31190,15 @@
         <v>833</v>
       </c>
       <c r="E1335" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="H1335">
-        <v>21023</v>
+        <v>17786</v>
       </c>
     </row>
     <row r="1336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>854</v>
+        <v>180</v>
       </c>
       <c r="B1336" t="s">
         <v>9</v>
@@ -31172,18 +31210,21 @@
         <v>833</v>
       </c>
       <c r="E1336" t="s">
-        <v>862</v>
+        <v>859</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>179</v>
       </c>
       <c r="H1336">
-        <v>7233</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>855</v>
+        <v>181</v>
       </c>
       <c r="B1337" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1337" t="s">
         <v>833</v>
@@ -31192,18 +31233,21 @@
         <v>833</v>
       </c>
       <c r="E1337" t="s">
-        <v>862</v>
+        <v>859</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>179</v>
       </c>
       <c r="H1337">
-        <v>7235</v>
+        <v>21317</v>
       </c>
     </row>
     <row r="1338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>864</v>
+        <v>182</v>
       </c>
       <c r="B1338" t="s">
-        <v>832</v>
+        <v>16</v>
       </c>
       <c r="C1338" t="s">
         <v>833</v>
@@ -31211,13 +31255,19 @@
       <c r="D1338" t="s">
         <v>833</v>
       </c>
+      <c r="E1338" t="s">
+        <v>859</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>179</v>
+      </c>
       <c r="H1338">
-        <v>21331</v>
+        <v>22639</v>
       </c>
     </row>
     <row r="1339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>138</v>
+        <v>861</v>
       </c>
       <c r="B1339" t="s">
         <v>9</v>
@@ -31229,18 +31279,18 @@
         <v>833</v>
       </c>
       <c r="E1339" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="H1339">
-        <v>17788</v>
+        <v>21025</v>
       </c>
     </row>
     <row r="1340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="B1340" t="s">
-        <v>16</v>
+        <v>832</v>
       </c>
       <c r="C1340" t="s">
         <v>833</v>
@@ -31248,19 +31298,16 @@
       <c r="D1340" t="s">
         <v>833</v>
       </c>
-      <c r="E1340" t="s">
-        <v>864</v>
-      </c>
       <c r="H1340">
-        <v>7235</v>
+        <v>21330</v>
       </c>
     </row>
     <row r="1341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B1341" t="s">
-        <v>832</v>
+        <v>9</v>
       </c>
       <c r="C1341" t="s">
         <v>833</v>
@@ -31268,13 +31315,16 @@
       <c r="D1341" t="s">
         <v>833</v>
       </c>
+      <c r="E1341" t="s">
+        <v>862</v>
+      </c>
       <c r="H1341">
-        <v>21332</v>
+        <v>21023</v>
       </c>
     </row>
     <row r="1342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
-        <v>351</v>
+        <v>854</v>
       </c>
       <c r="B1342" t="s">
         <v>9</v>
@@ -31286,18 +31336,18 @@
         <v>833</v>
       </c>
       <c r="E1342" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="H1342">
-        <v>7437</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="1343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="B1343" t="s">
-        <v>832</v>
+        <v>16</v>
       </c>
       <c r="C1343" t="s">
         <v>833</v>
@@ -31305,16 +31355,19 @@
       <c r="D1343" t="s">
         <v>833</v>
       </c>
+      <c r="E1343" t="s">
+        <v>862</v>
+      </c>
       <c r="H1343">
-        <v>19798</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="1344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>517</v>
+        <v>864</v>
       </c>
       <c r="B1344" t="s">
-        <v>16</v>
+        <v>832</v>
       </c>
       <c r="C1344" t="s">
         <v>833</v>
@@ -31322,19 +31375,16 @@
       <c r="D1344" t="s">
         <v>833</v>
       </c>
-      <c r="E1344" t="s">
-        <v>866</v>
-      </c>
       <c r="H1344">
-        <v>6562</v>
+        <v>21331</v>
       </c>
     </row>
     <row r="1345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>518</v>
+        <v>138</v>
       </c>
       <c r="B1345" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1345" t="s">
         <v>833</v>
@@ -31343,15 +31393,15 @@
         <v>833</v>
       </c>
       <c r="E1345" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H1345">
-        <v>6563</v>
+        <v>17788</v>
       </c>
     </row>
     <row r="1346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>519</v>
+        <v>855</v>
       </c>
       <c r="B1346" t="s">
         <v>16</v>
@@ -31363,18 +31413,18 @@
         <v>833</v>
       </c>
       <c r="E1346" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H1346">
-        <v>17235</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="1347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>520</v>
+        <v>865</v>
       </c>
       <c r="B1347" t="s">
-        <v>16</v>
+        <v>832</v>
       </c>
       <c r="C1347" t="s">
         <v>833</v>
@@ -31382,19 +31432,16 @@
       <c r="D1347" t="s">
         <v>833</v>
       </c>
-      <c r="E1347" t="s">
-        <v>866</v>
-      </c>
       <c r="H1347">
-        <v>6561</v>
+        <v>21332</v>
       </c>
     </row>
     <row r="1348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>537</v>
+        <v>351</v>
       </c>
       <c r="B1348" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1348" t="s">
         <v>833</v>
@@ -31403,18 +31450,18 @@
         <v>833</v>
       </c>
       <c r="E1348" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1348">
-        <v>2308</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="1349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>33</v>
+        <v>866</v>
       </c>
       <c r="B1349" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1349" t="s">
         <v>833</v>
@@ -31422,19 +31469,16 @@
       <c r="D1349" t="s">
         <v>833</v>
       </c>
-      <c r="E1349" t="s">
-        <v>866</v>
-      </c>
       <c r="H1349">
-        <v>21</v>
+        <v>19798</v>
       </c>
     </row>
     <row r="1350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>34</v>
+        <v>517</v>
       </c>
       <c r="B1350" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1350" t="s">
         <v>833</v>
@@ -31446,15 +31490,15 @@
         <v>866</v>
       </c>
       <c r="H1350">
-        <v>19</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="1351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>867</v>
+        <v>518</v>
       </c>
       <c r="B1351" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1351" t="s">
         <v>833</v>
@@ -31466,15 +31510,15 @@
         <v>866</v>
       </c>
       <c r="H1351">
-        <v>21181</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="1352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>868</v>
+        <v>519</v>
       </c>
       <c r="B1352" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1352" t="s">
         <v>833</v>
@@ -31486,15 +31530,15 @@
         <v>866</v>
       </c>
       <c r="H1352">
-        <v>6549</v>
+        <v>17235</v>
       </c>
     </row>
     <row r="1353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>869</v>
+        <v>520</v>
       </c>
       <c r="B1353" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1353" t="s">
         <v>833</v>
@@ -31506,15 +31550,15 @@
         <v>866</v>
       </c>
       <c r="H1353">
-        <v>6550</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="1354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>250</v>
+        <v>537</v>
       </c>
       <c r="B1354" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1354" t="s">
         <v>833</v>
@@ -31526,12 +31570,12 @@
         <v>866</v>
       </c>
       <c r="H1354">
-        <v>11696</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="B1355" t="s">
         <v>9</v>
@@ -31546,12 +31590,12 @@
         <v>866</v>
       </c>
       <c r="H1355">
-        <v>11698</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="B1356" t="s">
         <v>9</v>
@@ -31566,15 +31610,15 @@
         <v>866</v>
       </c>
       <c r="H1356">
-        <v>11697</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B1357" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C1357" t="s">
         <v>833</v>
@@ -31586,12 +31630,12 @@
         <v>866</v>
       </c>
       <c r="H1357">
-        <v>11645</v>
+        <v>21181</v>
       </c>
     </row>
     <row r="1358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B1358" t="s">
         <v>9</v>
@@ -31606,15 +31650,15 @@
         <v>866</v>
       </c>
       <c r="H1358">
-        <v>5736</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="1359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B1359" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1359" t="s">
         <v>833</v>
@@ -31626,12 +31670,12 @@
         <v>866</v>
       </c>
       <c r="H1359">
-        <v>31209</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="1360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>873</v>
+        <v>250</v>
       </c>
       <c r="B1360" t="s">
         <v>9</v>
@@ -31646,12 +31690,12 @@
         <v>866</v>
       </c>
       <c r="H1360">
-        <v>20908</v>
+        <v>11696</v>
       </c>
     </row>
     <row r="1361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>874</v>
+        <v>252</v>
       </c>
       <c r="B1361" t="s">
         <v>9</v>
@@ -31666,12 +31710,12 @@
         <v>866</v>
       </c>
       <c r="H1361">
-        <v>20909</v>
+        <v>11698</v>
       </c>
     </row>
     <row r="1362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>875</v>
+        <v>251</v>
       </c>
       <c r="B1362" t="s">
         <v>9</v>
@@ -31686,12 +31730,12 @@
         <v>866</v>
       </c>
       <c r="H1362">
-        <v>3065</v>
+        <v>11697</v>
       </c>
     </row>
     <row r="1363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B1363" t="s">
         <v>9</v>
@@ -31706,12 +31750,12 @@
         <v>866</v>
       </c>
       <c r="H1363">
-        <v>7685</v>
+        <v>11645</v>
       </c>
     </row>
     <row r="1364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B1364" t="s">
         <v>9</v>
@@ -31726,12 +31770,12 @@
         <v>866</v>
       </c>
       <c r="H1364">
-        <v>7021</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="1365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B1365" t="s">
         <v>112</v>
@@ -31746,12 +31790,12 @@
         <v>866</v>
       </c>
       <c r="H1365">
-        <v>30108</v>
+        <v>31209</v>
       </c>
     </row>
     <row r="1366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B1366" t="s">
         <v>9</v>
@@ -31766,12 +31810,12 @@
         <v>866</v>
       </c>
       <c r="H1366">
-        <v>7758</v>
+        <v>20908</v>
       </c>
     </row>
     <row r="1367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B1367" t="s">
         <v>9</v>
@@ -31786,12 +31830,12 @@
         <v>866</v>
       </c>
       <c r="H1367">
-        <v>4885</v>
+        <v>20909</v>
       </c>
     </row>
     <row r="1368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B1368" t="s">
         <v>9</v>
@@ -31806,12 +31850,12 @@
         <v>866</v>
       </c>
       <c r="H1368">
-        <v>1577</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="1369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B1369" t="s">
         <v>9</v>
@@ -31826,12 +31870,12 @@
         <v>866</v>
       </c>
       <c r="H1369">
-        <v>2664</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="1370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B1370" t="s">
         <v>9</v>
@@ -31846,15 +31890,15 @@
         <v>866</v>
       </c>
       <c r="H1370">
-        <v>3626</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="1371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B1371" t="s">
-        <v>832</v>
+        <v>112</v>
       </c>
       <c r="C1371" t="s">
         <v>833</v>
@@ -31862,16 +31906,19 @@
       <c r="D1371" t="s">
         <v>833</v>
       </c>
+      <c r="E1371" t="s">
+        <v>866</v>
+      </c>
       <c r="H1371">
-        <v>19799</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="1372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>517</v>
+        <v>879</v>
       </c>
       <c r="B1372" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1372" t="s">
         <v>833</v>
@@ -31880,18 +31927,18 @@
         <v>833</v>
       </c>
       <c r="E1372" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="H1372">
-        <v>6562</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="1373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>518</v>
+        <v>880</v>
       </c>
       <c r="B1373" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1373" t="s">
         <v>833</v>
@@ -31900,18 +31947,18 @@
         <v>833</v>
       </c>
       <c r="E1373" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="H1373">
-        <v>6563</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="1374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>519</v>
+        <v>881</v>
       </c>
       <c r="B1374" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1374" t="s">
         <v>833</v>
@@ -31920,18 +31967,18 @@
         <v>833</v>
       </c>
       <c r="E1374" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="H1374">
-        <v>17235</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>520</v>
+        <v>882</v>
       </c>
       <c r="B1375" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1375" t="s">
         <v>833</v>
@@ -31940,18 +31987,18 @@
         <v>833</v>
       </c>
       <c r="E1375" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="H1375">
-        <v>6561</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>537</v>
+        <v>883</v>
       </c>
       <c r="B1376" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1376" t="s">
         <v>833</v>
@@ -31960,18 +32007,18 @@
         <v>833</v>
       </c>
       <c r="E1376" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="H1376">
-        <v>2308</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>33</v>
+        <v>884</v>
       </c>
       <c r="B1377" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1377" t="s">
         <v>833</v>
@@ -31979,19 +32026,16 @@
       <c r="D1377" t="s">
         <v>833</v>
       </c>
-      <c r="E1377" t="s">
-        <v>884</v>
-      </c>
       <c r="H1377">
-        <v>21</v>
+        <v>19799</v>
       </c>
     </row>
     <row r="1378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>34</v>
+        <v>517</v>
       </c>
       <c r="B1378" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1378" t="s">
         <v>833</v>
@@ -32003,15 +32047,15 @@
         <v>884</v>
       </c>
       <c r="H1378">
-        <v>19</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="1379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>867</v>
+        <v>518</v>
       </c>
       <c r="B1379" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1379" t="s">
         <v>833</v>
@@ -32023,15 +32067,15 @@
         <v>884</v>
       </c>
       <c r="H1379">
-        <v>21181</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="1380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
-        <v>868</v>
+        <v>519</v>
       </c>
       <c r="B1380" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1380" t="s">
         <v>833</v>
@@ -32043,15 +32087,15 @@
         <v>884</v>
       </c>
       <c r="H1380">
-        <v>6549</v>
+        <v>17235</v>
       </c>
     </row>
     <row r="1381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>869</v>
+        <v>520</v>
       </c>
       <c r="B1381" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1381" t="s">
         <v>833</v>
@@ -32063,15 +32107,15 @@
         <v>884</v>
       </c>
       <c r="H1381">
-        <v>6550</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="1382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>248</v>
+        <v>537</v>
       </c>
       <c r="B1382" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1382" t="s">
         <v>833</v>
@@ -32083,12 +32127,12 @@
         <v>884</v>
       </c>
       <c r="H1382">
-        <v>6468</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="B1383" t="s">
         <v>9</v>
@@ -32103,12 +32147,12 @@
         <v>884</v>
       </c>
       <c r="H1383">
-        <v>6469</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="B1384" t="s">
         <v>9</v>
@@ -32123,15 +32167,15 @@
         <v>884</v>
       </c>
       <c r="H1384">
-        <v>11696</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
-        <v>252</v>
+        <v>867</v>
       </c>
       <c r="B1385" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C1385" t="s">
         <v>833</v>
@@ -32143,12 +32187,12 @@
         <v>884</v>
       </c>
       <c r="H1385">
-        <v>11698</v>
+        <v>21181</v>
       </c>
     </row>
     <row r="1386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>251</v>
+        <v>868</v>
       </c>
       <c r="B1386" t="s">
         <v>9</v>
@@ -32163,12 +32207,12 @@
         <v>884</v>
       </c>
       <c r="H1386">
-        <v>11697</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="1387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B1387" t="s">
         <v>9</v>
@@ -32183,12 +32227,12 @@
         <v>884</v>
       </c>
       <c r="H1387">
-        <v>11645</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="1388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
-        <v>871</v>
+        <v>248</v>
       </c>
       <c r="B1388" t="s">
         <v>9</v>
@@ -32203,15 +32247,15 @@
         <v>884</v>
       </c>
       <c r="H1388">
-        <v>5736</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="1389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>872</v>
+        <v>249</v>
       </c>
       <c r="B1389" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1389" t="s">
         <v>833</v>
@@ -32223,12 +32267,12 @@
         <v>884</v>
       </c>
       <c r="H1389">
-        <v>31209</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="1390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>873</v>
+        <v>250</v>
       </c>
       <c r="B1390" t="s">
         <v>9</v>
@@ -32243,12 +32287,12 @@
         <v>884</v>
       </c>
       <c r="H1390">
-        <v>20908</v>
+        <v>11696</v>
       </c>
     </row>
     <row r="1391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>874</v>
+        <v>252</v>
       </c>
       <c r="B1391" t="s">
         <v>9</v>
@@ -32263,12 +32307,12 @@
         <v>884</v>
       </c>
       <c r="H1391">
-        <v>20909</v>
+        <v>11698</v>
       </c>
     </row>
     <row r="1392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>875</v>
+        <v>251</v>
       </c>
       <c r="B1392" t="s">
         <v>9</v>
@@ -32283,12 +32327,12 @@
         <v>884</v>
       </c>
       <c r="H1392">
-        <v>3065</v>
+        <v>11697</v>
       </c>
     </row>
     <row r="1393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B1393" t="s">
         <v>9</v>
@@ -32303,12 +32347,12 @@
         <v>884</v>
       </c>
       <c r="H1393">
-        <v>7685</v>
+        <v>11645</v>
       </c>
     </row>
     <row r="1394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B1394" t="s">
         <v>9</v>
@@ -32323,12 +32367,12 @@
         <v>884</v>
       </c>
       <c r="H1394">
-        <v>7021</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="1395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B1395" t="s">
         <v>112</v>
@@ -32343,12 +32387,12 @@
         <v>884</v>
       </c>
       <c r="H1395">
-        <v>30108</v>
+        <v>31209</v>
       </c>
     </row>
     <row r="1396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B1396" t="s">
         <v>9</v>
@@ -32363,12 +32407,12 @@
         <v>884</v>
       </c>
       <c r="H1396">
-        <v>7758</v>
+        <v>20908</v>
       </c>
     </row>
     <row r="1397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B1397" t="s">
         <v>9</v>
@@ -32383,12 +32427,12 @@
         <v>884</v>
       </c>
       <c r="H1397">
-        <v>4885</v>
+        <v>20909</v>
       </c>
     </row>
     <row r="1398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B1398" t="s">
         <v>9</v>
@@ -32403,12 +32447,12 @@
         <v>884</v>
       </c>
       <c r="H1398">
-        <v>1577</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="1399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B1399" t="s">
         <v>9</v>
@@ -32423,12 +32467,12 @@
         <v>884</v>
       </c>
       <c r="H1399">
-        <v>2664</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="1400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B1400" t="s">
         <v>9</v>
@@ -32443,15 +32487,15 @@
         <v>884</v>
       </c>
       <c r="H1400">
-        <v>3626</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="1401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B1401" t="s">
-        <v>832</v>
+        <v>112</v>
       </c>
       <c r="C1401" t="s">
         <v>833</v>
@@ -32459,16 +32503,19 @@
       <c r="D1401" t="s">
         <v>833</v>
       </c>
+      <c r="E1401" t="s">
+        <v>884</v>
+      </c>
       <c r="H1401">
-        <v>19800</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="1402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>517</v>
+        <v>879</v>
       </c>
       <c r="B1402" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1402" t="s">
         <v>833</v>
@@ -32477,18 +32524,18 @@
         <v>833</v>
       </c>
       <c r="E1402" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1402">
-        <v>6562</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="1403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>518</v>
+        <v>880</v>
       </c>
       <c r="B1403" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1403" t="s">
         <v>833</v>
@@ -32497,18 +32544,18 @@
         <v>833</v>
       </c>
       <c r="E1403" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1403">
-        <v>6563</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="1404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>519</v>
+        <v>881</v>
       </c>
       <c r="B1404" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1404" t="s">
         <v>833</v>
@@ -32517,18 +32564,18 @@
         <v>833</v>
       </c>
       <c r="E1404" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1404">
-        <v>17235</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>520</v>
+        <v>882</v>
       </c>
       <c r="B1405" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1405" t="s">
         <v>833</v>
@@ -32537,18 +32584,18 @@
         <v>833</v>
       </c>
       <c r="E1405" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1405">
-        <v>6561</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>537</v>
+        <v>883</v>
       </c>
       <c r="B1406" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1406" t="s">
         <v>833</v>
@@ -32557,18 +32604,18 @@
         <v>833</v>
       </c>
       <c r="E1406" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1406">
-        <v>2308</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>33</v>
+        <v>885</v>
       </c>
       <c r="B1407" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1407" t="s">
         <v>833</v>
@@ -32576,19 +32623,16 @@
       <c r="D1407" t="s">
         <v>833</v>
       </c>
-      <c r="E1407" t="s">
-        <v>885</v>
-      </c>
       <c r="H1407">
-        <v>21</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="1408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>34</v>
+        <v>517</v>
       </c>
       <c r="B1408" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1408" t="s">
         <v>833</v>
@@ -32600,15 +32644,15 @@
         <v>885</v>
       </c>
       <c r="H1408">
-        <v>19</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="1409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>867</v>
+        <v>518</v>
       </c>
       <c r="B1409" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1409" t="s">
         <v>833</v>
@@ -32620,15 +32664,15 @@
         <v>885</v>
       </c>
       <c r="H1409">
-        <v>21181</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="1410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>868</v>
+        <v>519</v>
       </c>
       <c r="B1410" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1410" t="s">
         <v>833</v>
@@ -32640,15 +32684,15 @@
         <v>885</v>
       </c>
       <c r="H1410">
-        <v>6549</v>
+        <v>17235</v>
       </c>
     </row>
     <row r="1411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>869</v>
+        <v>520</v>
       </c>
       <c r="B1411" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1411" t="s">
         <v>833</v>
@@ -32660,15 +32704,15 @@
         <v>885</v>
       </c>
       <c r="H1411">
-        <v>6550</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="1412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
-        <v>248</v>
+        <v>537</v>
       </c>
       <c r="B1412" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C1412" t="s">
         <v>833</v>
@@ -32680,12 +32724,12 @@
         <v>885</v>
       </c>
       <c r="H1412">
-        <v>6468</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="B1413" t="s">
         <v>9</v>
@@ -32700,12 +32744,12 @@
         <v>885</v>
       </c>
       <c r="H1413">
-        <v>6469</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="B1414" t="s">
         <v>9</v>
@@ -32720,15 +32764,15 @@
         <v>885</v>
       </c>
       <c r="H1414">
-        <v>11696</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>252</v>
+        <v>867</v>
       </c>
       <c r="B1415" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C1415" t="s">
         <v>833</v>
@@ -32740,12 +32784,12 @@
         <v>885</v>
       </c>
       <c r="H1415">
-        <v>11698</v>
+        <v>21181</v>
       </c>
     </row>
     <row r="1416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>251</v>
+        <v>868</v>
       </c>
       <c r="B1416" t="s">
         <v>9</v>
@@ -32760,12 +32804,12 @@
         <v>885</v>
       </c>
       <c r="H1416">
-        <v>11697</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="1417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B1417" t="s">
         <v>9</v>
@@ -32780,12 +32824,12 @@
         <v>885</v>
       </c>
       <c r="H1417">
-        <v>11645</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="1418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>871</v>
+        <v>248</v>
       </c>
       <c r="B1418" t="s">
         <v>9</v>
@@ -32800,15 +32844,15 @@
         <v>885</v>
       </c>
       <c r="H1418">
-        <v>5736</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>872</v>
+        <v>249</v>
       </c>
       <c r="B1419" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1419" t="s">
         <v>833</v>
@@ -32820,12 +32864,12 @@
         <v>885</v>
       </c>
       <c r="H1419">
-        <v>31209</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="1420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>873</v>
+        <v>250</v>
       </c>
       <c r="B1420" t="s">
         <v>9</v>
@@ -32840,12 +32884,12 @@
         <v>885</v>
       </c>
       <c r="H1420">
-        <v>20908</v>
+        <v>11696</v>
       </c>
     </row>
     <row r="1421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
-        <v>874</v>
+        <v>252</v>
       </c>
       <c r="B1421" t="s">
         <v>9</v>
@@ -32860,12 +32904,12 @@
         <v>885</v>
       </c>
       <c r="H1421">
-        <v>20909</v>
+        <v>11698</v>
       </c>
     </row>
     <row r="1422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>875</v>
+        <v>251</v>
       </c>
       <c r="B1422" t="s">
         <v>9</v>
@@ -32880,12 +32924,12 @@
         <v>885</v>
       </c>
       <c r="H1422">
-        <v>3065</v>
+        <v>11697</v>
       </c>
     </row>
     <row r="1423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B1423" t="s">
         <v>9</v>
@@ -32900,12 +32944,12 @@
         <v>885</v>
       </c>
       <c r="H1423">
-        <v>7685</v>
+        <v>11645</v>
       </c>
     </row>
     <row r="1424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B1424" t="s">
         <v>9</v>
@@ -32920,12 +32964,12 @@
         <v>885</v>
       </c>
       <c r="H1424">
-        <v>7021</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="1425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B1425" t="s">
         <v>112</v>
@@ -32940,12 +32984,12 @@
         <v>885</v>
       </c>
       <c r="H1425">
-        <v>30108</v>
+        <v>31209</v>
       </c>
     </row>
     <row r="1426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B1426" t="s">
         <v>9</v>
@@ -32960,12 +33004,12 @@
         <v>885</v>
       </c>
       <c r="H1426">
-        <v>7758</v>
+        <v>20908</v>
       </c>
     </row>
     <row r="1427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B1427" t="s">
         <v>9</v>
@@ -32980,12 +33024,12 @@
         <v>885</v>
       </c>
       <c r="H1427">
-        <v>4885</v>
+        <v>20909</v>
       </c>
     </row>
     <row r="1428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B1428" t="s">
         <v>9</v>
@@ -33000,12 +33044,12 @@
         <v>885</v>
       </c>
       <c r="H1428">
-        <v>1577</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="1429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B1429" t="s">
         <v>9</v>
@@ -33020,12 +33064,12 @@
         <v>885</v>
       </c>
       <c r="H1429">
-        <v>2664</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="1430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B1430" t="s">
         <v>9</v>
@@ -33040,15 +33084,15 @@
         <v>885</v>
       </c>
       <c r="H1430">
-        <v>3626</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="1431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="B1431" t="s">
-        <v>832</v>
+        <v>112</v>
       </c>
       <c r="C1431" t="s">
         <v>833</v>
@@ -33056,13 +33100,16 @@
       <c r="D1431" t="s">
         <v>833</v>
       </c>
+      <c r="E1431" t="s">
+        <v>885</v>
+      </c>
       <c r="H1431">
-        <v>14601</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="1432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>33</v>
+        <v>879</v>
       </c>
       <c r="B1432" t="s">
         <v>9</v>
@@ -33074,15 +33121,15 @@
         <v>833</v>
       </c>
       <c r="E1432" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1432">
-        <v>21</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="1433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
-        <v>34</v>
+        <v>880</v>
       </c>
       <c r="B1433" t="s">
         <v>9</v>
@@ -33094,18 +33141,18 @@
         <v>833</v>
       </c>
       <c r="E1433" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1433">
-        <v>19</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="1434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="B1434" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1434" t="s">
         <v>833</v>
@@ -33114,15 +33161,15 @@
         <v>833</v>
       </c>
       <c r="E1434" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1434">
-        <v>21181</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="B1435" t="s">
         <v>9</v>
@@ -33134,15 +33181,15 @@
         <v>833</v>
       </c>
       <c r="E1435" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1435">
-        <v>6549</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="B1436" t="s">
         <v>9</v>
@@ -33154,18 +33201,18 @@
         <v>833</v>
       </c>
       <c r="E1436" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1436">
-        <v>6550</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="B1437" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1437" t="s">
         <v>833</v>
@@ -33173,16 +33220,13 @@
       <c r="D1437" t="s">
         <v>833</v>
       </c>
-      <c r="E1437" t="s">
-        <v>886</v>
-      </c>
       <c r="H1437">
-        <v>11645</v>
+        <v>14601</v>
       </c>
     </row>
     <row r="1438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
-        <v>871</v>
+        <v>33</v>
       </c>
       <c r="B1438" t="s">
         <v>9</v>
@@ -33197,15 +33241,15 @@
         <v>886</v>
       </c>
       <c r="H1438">
-        <v>5736</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
-        <v>887</v>
+        <v>34</v>
       </c>
       <c r="B1439" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1439" t="s">
         <v>833</v>
@@ -33217,15 +33261,15 @@
         <v>886</v>
       </c>
       <c r="H1439">
-        <v>31212</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>61</v>
+        <v>867</v>
       </c>
       <c r="B1440" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C1440" t="s">
         <v>833</v>
@@ -33236,16 +33280,13 @@
       <c r="E1440" t="s">
         <v>886</v>
       </c>
-      <c r="F1440" t="s">
-        <v>887</v>
-      </c>
       <c r="H1440">
-        <v>253</v>
+        <v>21181</v>
       </c>
     </row>
     <row r="1441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>88</v>
+        <v>868</v>
       </c>
       <c r="B1441" t="s">
         <v>9</v>
@@ -33259,16 +33300,13 @@
       <c r="E1441" t="s">
         <v>886</v>
       </c>
-      <c r="F1441" t="s">
-        <v>887</v>
-      </c>
       <c r="H1441">
-        <v>779</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="1442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>54</v>
+        <v>869</v>
       </c>
       <c r="B1442" t="s">
         <v>9</v>
@@ -33282,16 +33320,13 @@
       <c r="E1442" t="s">
         <v>886</v>
       </c>
-      <c r="F1442" t="s">
-        <v>887</v>
-      </c>
       <c r="H1442">
-        <v>6559</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="1443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>64</v>
+        <v>870</v>
       </c>
       <c r="B1443" t="s">
         <v>9</v>
@@ -33305,19 +33340,16 @@
       <c r="E1443" t="s">
         <v>886</v>
       </c>
-      <c r="F1443" t="s">
-        <v>887</v>
-      </c>
       <c r="H1443">
-        <v>783</v>
+        <v>11645</v>
       </c>
     </row>
     <row r="1444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="B1444" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1444" t="s">
         <v>833</v>
@@ -33328,19 +33360,16 @@
       <c r="E1444" t="s">
         <v>886</v>
       </c>
-      <c r="F1444" t="s">
-        <v>887</v>
-      </c>
       <c r="H1444">
-        <v>30463</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="1445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>46</v>
+        <v>887</v>
       </c>
       <c r="B1445" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C1445" t="s">
         <v>833</v>
@@ -33351,19 +33380,13 @@
       <c r="E1445" t="s">
         <v>886</v>
       </c>
-      <c r="F1445" t="s">
-        <v>887</v>
-      </c>
-      <c r="G1445" t="s">
-        <v>888</v>
-      </c>
       <c r="H1445">
-        <v>3511</v>
+        <v>31212</v>
       </c>
     </row>
     <row r="1446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1446" t="s">
         <v>9</v>
@@ -33380,16 +33403,13 @@
       <c r="F1446" t="s">
         <v>887</v>
       </c>
-      <c r="G1446" t="s">
-        <v>888</v>
-      </c>
       <c r="H1446">
-        <v>3969</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1447" t="s">
         <v>9</v>
@@ -33406,16 +33426,13 @@
       <c r="F1447" t="s">
         <v>887</v>
       </c>
-      <c r="G1447" t="s">
-        <v>888</v>
-      </c>
       <c r="H1447">
-        <v>3963</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>873</v>
+        <v>54</v>
       </c>
       <c r="B1448" t="s">
         <v>9</v>
@@ -33429,13 +33446,16 @@
       <c r="E1448" t="s">
         <v>886</v>
       </c>
+      <c r="F1448" t="s">
+        <v>887</v>
+      </c>
       <c r="H1448">
-        <v>20908</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="1449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>874</v>
+        <v>64</v>
       </c>
       <c r="B1449" t="s">
         <v>9</v>
@@ -33449,16 +33469,19 @@
       <c r="E1449" t="s">
         <v>886</v>
       </c>
+      <c r="F1449" t="s">
+        <v>887</v>
+      </c>
       <c r="H1449">
-        <v>20909</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B1450" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C1450" t="s">
         <v>833</v>
@@ -33469,13 +33492,16 @@
       <c r="E1450" t="s">
         <v>886</v>
       </c>
+      <c r="F1450" t="s">
+        <v>887</v>
+      </c>
       <c r="H1450">
-        <v>3854</v>
+        <v>30463</v>
       </c>
     </row>
     <row r="1451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>876</v>
+        <v>46</v>
       </c>
       <c r="B1451" t="s">
         <v>9</v>
@@ -33489,13 +33515,19 @@
       <c r="E1451" t="s">
         <v>886</v>
       </c>
+      <c r="F1451" t="s">
+        <v>887</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>888</v>
+      </c>
       <c r="H1451">
-        <v>7685</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>877</v>
+        <v>60</v>
       </c>
       <c r="B1452" t="s">
         <v>9</v>
@@ -33509,16 +33541,22 @@
       <c r="E1452" t="s">
         <v>886</v>
       </c>
+      <c r="F1452" t="s">
+        <v>887</v>
+      </c>
+      <c r="G1452" t="s">
+        <v>888</v>
+      </c>
       <c r="H1452">
-        <v>7021</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="1453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>878</v>
+        <v>87</v>
       </c>
       <c r="B1453" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1453" t="s">
         <v>833</v>
@@ -33529,13 +33567,19 @@
       <c r="E1453" t="s">
         <v>886</v>
       </c>
+      <c r="F1453" t="s">
+        <v>887</v>
+      </c>
+      <c r="G1453" t="s">
+        <v>888</v>
+      </c>
       <c r="H1453">
-        <v>30108</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B1454" t="s">
         <v>9</v>
@@ -33550,12 +33594,12 @@
         <v>886</v>
       </c>
       <c r="H1454">
-        <v>4885</v>
+        <v>20908</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B1455" t="s">
         <v>9</v>
@@ -33570,12 +33614,12 @@
         <v>886</v>
       </c>
       <c r="H1455">
-        <v>1577</v>
+        <v>20909</v>
       </c>
     </row>
     <row r="1456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="B1456" t="s">
         <v>9</v>
@@ -33590,12 +33634,12 @@
         <v>886</v>
       </c>
       <c r="H1456">
-        <v>2664</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="1457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B1457" t="s">
         <v>9</v>
@@ -33610,15 +33654,15 @@
         <v>886</v>
       </c>
       <c r="H1457">
-        <v>3626</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="1458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B1458" t="s">
-        <v>832</v>
+        <v>9</v>
       </c>
       <c r="C1458" t="s">
         <v>833</v>
@@ -33626,16 +33670,19 @@
       <c r="D1458" t="s">
         <v>833</v>
       </c>
+      <c r="E1458" t="s">
+        <v>886</v>
+      </c>
       <c r="H1458">
-        <v>17941</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="1459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>33</v>
+        <v>878</v>
       </c>
       <c r="B1459" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C1459" t="s">
         <v>833</v>
@@ -33644,15 +33691,15 @@
         <v>833</v>
       </c>
       <c r="E1459" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H1459">
-        <v>21</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="1460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>34</v>
+        <v>880</v>
       </c>
       <c r="B1460" t="s">
         <v>9</v>
@@ -33664,18 +33711,18 @@
         <v>833</v>
       </c>
       <c r="E1460" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H1460">
-        <v>19</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="1461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="B1461" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1461" t="s">
         <v>833</v>
@@ -33684,18 +33731,18 @@
         <v>833</v>
       </c>
       <c r="E1461" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H1461">
-        <v>21181</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="B1462" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1462" t="s">
         <v>833</v>
@@ -33704,15 +33751,15 @@
         <v>833</v>
       </c>
       <c r="E1462" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H1462">
-        <v>22404</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>676</v>
+        <v>883</v>
       </c>
       <c r="B1463" t="s">
         <v>9</v>
@@ -33724,21 +33771,18 @@
         <v>833</v>
       </c>
       <c r="E1463" t="s">
-        <v>890</v>
-      </c>
-      <c r="F1463" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="H1463">
-        <v>3685</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
-        <v>677</v>
+        <v>890</v>
       </c>
       <c r="B1464" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1464" t="s">
         <v>833</v>
@@ -33746,19 +33790,13 @@
       <c r="D1464" t="s">
         <v>833</v>
       </c>
-      <c r="E1464" t="s">
-        <v>890</v>
-      </c>
-      <c r="F1464" t="s">
-        <v>891</v>
-      </c>
       <c r="H1464">
-        <v>3687</v>
+        <v>17941</v>
       </c>
     </row>
     <row r="1465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>674</v>
+        <v>33</v>
       </c>
       <c r="B1465" t="s">
         <v>9</v>
@@ -33772,16 +33810,13 @@
       <c r="E1465" t="s">
         <v>890</v>
       </c>
-      <c r="F1465" t="s">
-        <v>891</v>
-      </c>
       <c r="H1465">
-        <v>3681</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>675</v>
+        <v>34</v>
       </c>
       <c r="B1466" t="s">
         <v>9</v>
@@ -33795,19 +33830,16 @@
       <c r="E1466" t="s">
         <v>890</v>
       </c>
-      <c r="F1466" t="s">
-        <v>891</v>
-      </c>
       <c r="H1466">
-        <v>3683</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="B1467" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="C1467" t="s">
         <v>833</v>
@@ -33819,15 +33851,15 @@
         <v>890</v>
       </c>
       <c r="H1467">
-        <v>22403</v>
+        <v>21181</v>
       </c>
     </row>
     <row r="1468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>671</v>
+        <v>891</v>
       </c>
       <c r="B1468" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C1468" t="s">
         <v>833</v>
@@ -33838,16 +33870,13 @@
       <c r="E1468" t="s">
         <v>890</v>
       </c>
-      <c r="F1468" t="s">
-        <v>892</v>
-      </c>
       <c r="H1468">
-        <v>294</v>
+        <v>22404</v>
       </c>
     </row>
     <row r="1469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B1469" t="s">
         <v>9</v>
@@ -33862,15 +33891,15 @@
         <v>890</v>
       </c>
       <c r="F1469" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1469">
-        <v>293</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B1470" t="s">
         <v>9</v>
@@ -33885,18 +33914,18 @@
         <v>890</v>
       </c>
       <c r="F1470" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1470">
-        <v>3679</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>893</v>
+        <v>674</v>
       </c>
       <c r="B1471" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1471" t="s">
         <v>833</v>
@@ -33907,13 +33936,16 @@
       <c r="E1471" t="s">
         <v>890</v>
       </c>
+      <c r="F1471" t="s">
+        <v>891</v>
+      </c>
       <c r="H1471">
-        <v>22405</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="B1472" t="s">
         <v>9</v>
@@ -33928,18 +33960,18 @@
         <v>890</v>
       </c>
       <c r="F1472" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H1472">
-        <v>3678</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
-        <v>665</v>
+        <v>892</v>
       </c>
       <c r="B1473" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C1473" t="s">
         <v>833</v>
@@ -33950,16 +33982,13 @@
       <c r="E1473" t="s">
         <v>890</v>
       </c>
-      <c r="F1473" t="s">
-        <v>893</v>
-      </c>
       <c r="H1473">
-        <v>802</v>
+        <v>22403</v>
       </c>
     </row>
     <row r="1474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B1474" t="s">
         <v>9</v>
@@ -33974,15 +34003,15 @@
         <v>890</v>
       </c>
       <c r="F1474" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1474">
-        <v>801</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B1475" t="s">
         <v>9</v>
@@ -33997,15 +34026,15 @@
         <v>890</v>
       </c>
       <c r="F1475" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1475">
-        <v>803</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
-        <v>868</v>
+        <v>673</v>
       </c>
       <c r="B1476" t="s">
         <v>9</v>
@@ -34019,16 +34048,19 @@
       <c r="E1476" t="s">
         <v>890</v>
       </c>
+      <c r="F1476" t="s">
+        <v>892</v>
+      </c>
       <c r="H1476">
-        <v>6549</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="B1477" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C1477" t="s">
         <v>833</v>
@@ -34040,12 +34072,12 @@
         <v>890</v>
       </c>
       <c r="H1477">
-        <v>6550</v>
+        <v>22405</v>
       </c>
     </row>
     <row r="1478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
-        <v>870</v>
+        <v>664</v>
       </c>
       <c r="B1478" t="s">
         <v>9</v>
@@ -34059,13 +34091,16 @@
       <c r="E1478" t="s">
         <v>890</v>
       </c>
+      <c r="F1478" t="s">
+        <v>893</v>
+      </c>
       <c r="H1478">
-        <v>11645</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="1479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>871</v>
+        <v>665</v>
       </c>
       <c r="B1479" t="s">
         <v>9</v>
@@ -34079,16 +34114,19 @@
       <c r="E1479" t="s">
         <v>890</v>
       </c>
+      <c r="F1479" t="s">
+        <v>893</v>
+      </c>
       <c r="H1479">
-        <v>5736</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>887</v>
+        <v>666</v>
       </c>
       <c r="B1480" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1480" t="s">
         <v>833</v>
@@ -34099,13 +34137,16 @@
       <c r="E1480" t="s">
         <v>890</v>
       </c>
+      <c r="F1480" t="s">
+        <v>893</v>
+      </c>
       <c r="H1480">
-        <v>31212</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>61</v>
+        <v>667</v>
       </c>
       <c r="B1481" t="s">
         <v>9</v>
@@ -34120,15 +34161,15 @@
         <v>890</v>
       </c>
       <c r="F1481" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="H1481">
-        <v>253</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
-        <v>88</v>
+        <v>868</v>
       </c>
       <c r="B1482" t="s">
         <v>9</v>
@@ -34142,16 +34183,13 @@
       <c r="E1482" t="s">
         <v>890</v>
       </c>
-      <c r="F1482" t="s">
-        <v>887</v>
-      </c>
       <c r="H1482">
-        <v>779</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="1483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
-        <v>54</v>
+        <v>869</v>
       </c>
       <c r="B1483" t="s">
         <v>9</v>
@@ -34165,16 +34203,13 @@
       <c r="E1483" t="s">
         <v>890</v>
       </c>
-      <c r="F1483" t="s">
-        <v>887</v>
-      </c>
       <c r="H1483">
-        <v>6559</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
-        <v>64</v>
+        <v>870</v>
       </c>
       <c r="B1484" t="s">
         <v>9</v>
@@ -34188,19 +34223,16 @@
       <c r="E1484" t="s">
         <v>890</v>
       </c>
-      <c r="F1484" t="s">
-        <v>887</v>
-      </c>
       <c r="H1484">
-        <v>783</v>
+        <v>11645</v>
       </c>
     </row>
     <row r="1485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="B1485" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1485" t="s">
         <v>833</v>
@@ -34211,19 +34243,16 @@
       <c r="E1485" t="s">
         <v>890</v>
       </c>
-      <c r="F1485" t="s">
-        <v>887</v>
-      </c>
       <c r="H1485">
-        <v>30463</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="1486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
-        <v>46</v>
+        <v>887</v>
       </c>
       <c r="B1486" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C1486" t="s">
         <v>833</v>
@@ -34234,19 +34263,13 @@
       <c r="E1486" t="s">
         <v>890</v>
       </c>
-      <c r="F1486" t="s">
-        <v>887</v>
-      </c>
-      <c r="G1486" t="s">
-        <v>888</v>
-      </c>
       <c r="H1486">
-        <v>3511</v>
+        <v>31212</v>
       </c>
     </row>
     <row r="1487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1487" t="s">
         <v>9</v>
@@ -34263,16 +34286,13 @@
       <c r="F1487" t="s">
         <v>887</v>
       </c>
-      <c r="G1487" t="s">
-        <v>888</v>
-      </c>
       <c r="H1487">
-        <v>3969</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1488" t="s">
         <v>9</v>
@@ -34289,16 +34309,13 @@
       <c r="F1488" t="s">
         <v>887</v>
       </c>
-      <c r="G1488" t="s">
-        <v>888</v>
-      </c>
       <c r="H1488">
-        <v>3963</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>873</v>
+        <v>54</v>
       </c>
       <c r="B1489" t="s">
         <v>9</v>
@@ -34312,13 +34329,16 @@
       <c r="E1489" t="s">
         <v>890</v>
       </c>
+      <c r="F1489" t="s">
+        <v>887</v>
+      </c>
       <c r="H1489">
-        <v>20908</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="1490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
-        <v>874</v>
+        <v>64</v>
       </c>
       <c r="B1490" t="s">
         <v>9</v>
@@ -34332,16 +34352,19 @@
       <c r="E1490" t="s">
         <v>890</v>
       </c>
+      <c r="F1490" t="s">
+        <v>887</v>
+      </c>
       <c r="H1490">
-        <v>20909</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B1491" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C1491" t="s">
         <v>833</v>
@@ -34352,13 +34375,16 @@
       <c r="E1491" t="s">
         <v>890</v>
       </c>
+      <c r="F1491" t="s">
+        <v>887</v>
+      </c>
       <c r="H1491">
-        <v>3854</v>
+        <v>30463</v>
       </c>
     </row>
     <row r="1492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
-        <v>876</v>
+        <v>46</v>
       </c>
       <c r="B1492" t="s">
         <v>9</v>
@@ -34372,13 +34398,19 @@
       <c r="E1492" t="s">
         <v>890</v>
       </c>
+      <c r="F1492" t="s">
+        <v>887</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>888</v>
+      </c>
       <c r="H1492">
-        <v>7685</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>877</v>
+        <v>60</v>
       </c>
       <c r="B1493" t="s">
         <v>9</v>
@@ -34392,16 +34424,22 @@
       <c r="E1493" t="s">
         <v>890</v>
       </c>
+      <c r="F1493" t="s">
+        <v>887</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>888</v>
+      </c>
       <c r="H1493">
-        <v>7021</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="1494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>878</v>
+        <v>87</v>
       </c>
       <c r="B1494" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1494" t="s">
         <v>833</v>
@@ -34412,13 +34450,19 @@
       <c r="E1494" t="s">
         <v>890</v>
       </c>
+      <c r="F1494" t="s">
+        <v>887</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>888</v>
+      </c>
       <c r="H1494">
-        <v>30108</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B1495" t="s">
         <v>9</v>
@@ -34433,12 +34477,12 @@
         <v>890</v>
       </c>
       <c r="H1495">
-        <v>4885</v>
+        <v>20908</v>
       </c>
     </row>
     <row r="1496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B1496" t="s">
         <v>9</v>
@@ -34453,12 +34497,12 @@
         <v>890</v>
       </c>
       <c r="H1496">
-        <v>1577</v>
+        <v>20909</v>
       </c>
     </row>
     <row r="1497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="B1497" t="s">
         <v>9</v>
@@ -34473,12 +34517,12 @@
         <v>890</v>
       </c>
       <c r="H1497">
-        <v>2664</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="1498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B1498" t="s">
         <v>9</v>
@@ -34493,15 +34537,15 @@
         <v>890</v>
       </c>
       <c r="H1498">
-        <v>3626</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="1499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="B1499" t="s">
-        <v>832</v>
+        <v>9</v>
       </c>
       <c r="C1499" t="s">
         <v>833</v>
@@ -34509,16 +34553,19 @@
       <c r="D1499" t="s">
         <v>833</v>
       </c>
+      <c r="E1499" t="s">
+        <v>890</v>
+      </c>
       <c r="H1499">
-        <v>18801</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="1500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>33</v>
+        <v>878</v>
       </c>
       <c r="B1500" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="C1500" t="s">
         <v>833</v>
@@ -34527,15 +34574,15 @@
         <v>833</v>
       </c>
       <c r="E1500" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H1500">
-        <v>21</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="1501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>34</v>
+        <v>880</v>
       </c>
       <c r="B1501" t="s">
         <v>9</v>
@@ -34547,18 +34594,18 @@
         <v>833</v>
       </c>
       <c r="E1501" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H1501">
-        <v>19</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="1502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="B1502" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1502" t="s">
         <v>833</v>
@@ -34567,15 +34614,15 @@
         <v>833</v>
       </c>
       <c r="E1502" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H1502">
-        <v>21181</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="B1503" t="s">
         <v>9</v>
@@ -34587,15 +34634,15 @@
         <v>833</v>
       </c>
       <c r="E1503" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H1503">
-        <v>6550</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="B1504" t="s">
         <v>9</v>
@@ -34607,18 +34654,18 @@
         <v>833</v>
       </c>
       <c r="E1504" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H1504">
-        <v>11645</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1505" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
       <c r="B1505" t="s">
-        <v>9</v>
+        <v>832</v>
       </c>
       <c r="C1505" t="s">
         <v>833</v>
@@ -34626,16 +34673,13 @@
       <c r="D1505" t="s">
         <v>833</v>
       </c>
-      <c r="E1505" t="s">
-        <v>894</v>
-      </c>
       <c r="H1505">
-        <v>5736</v>
+        <v>18801</v>
       </c>
     </row>
     <row r="1506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
-        <v>873</v>
+        <v>33</v>
       </c>
       <c r="B1506" t="s">
         <v>9</v>
@@ -34650,12 +34694,12 @@
         <v>894</v>
       </c>
       <c r="H1506">
-        <v>20908</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>874</v>
+        <v>34</v>
       </c>
       <c r="B1507" t="s">
         <v>9</v>
@@ -34670,15 +34714,15 @@
         <v>894</v>
       </c>
       <c r="H1507">
-        <v>20909</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>895</v>
+        <v>867</v>
       </c>
       <c r="B1508" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C1508" t="s">
         <v>833</v>
@@ -34690,15 +34734,15 @@
         <v>894</v>
       </c>
       <c r="H1508">
-        <v>2620</v>
+        <v>21181</v>
       </c>
     </row>
     <row r="1509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B1509" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C1509" t="s">
         <v>833</v>
@@ -34710,12 +34754,12 @@
         <v>894</v>
       </c>
       <c r="H1509">
-        <v>30108</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="1510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B1510" t="s">
         <v>9</v>
@@ -34730,12 +34774,12 @@
         <v>894</v>
       </c>
       <c r="H1510">
-        <v>4885</v>
+        <v>11645</v>
       </c>
     </row>
     <row r="1511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B1511" t="s">
         <v>9</v>
@@ -34750,12 +34794,12 @@
         <v>894</v>
       </c>
       <c r="H1511">
-        <v>1577</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="1512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="B1512" t="s">
         <v>9</v>
@@ -34770,12 +34814,12 @@
         <v>894</v>
       </c>
       <c r="H1512">
-        <v>2664</v>
+        <v>20908</v>
       </c>
     </row>
     <row r="1513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="B1513" t="s">
         <v>9</v>
@@ -34790,15 +34834,15 @@
         <v>894</v>
       </c>
       <c r="H1513">
-        <v>3626</v>
+        <v>20909</v>
       </c>
     </row>
     <row r="1514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B1514" t="s">
-        <v>832</v>
+        <v>9</v>
       </c>
       <c r="C1514" t="s">
         <v>833</v>
@@ -34806,16 +34850,19 @@
       <c r="D1514" t="s">
         <v>833</v>
       </c>
+      <c r="E1514" t="s">
+        <v>894</v>
+      </c>
       <c r="H1514">
-        <v>21155</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="B1515" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="C1515" t="s">
         <v>833</v>
@@ -34824,57 +34871,174 @@
         <v>833</v>
       </c>
       <c r="E1515" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H1515">
-        <v>21156</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="1516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
+        <v>880</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>833</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>894</v>
+      </c>
+      <c r="H1516">
+        <v>4885</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1517" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>833</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>894</v>
+      </c>
+      <c r="H1517">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>882</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>833</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>894</v>
+      </c>
+      <c r="H1518">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>883</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>833</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>894</v>
+      </c>
+      <c r="H1519">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1520" t="s">
+        <v>896</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>832</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>833</v>
+      </c>
+      <c r="H1520">
+        <v>21155</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>833</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>896</v>
+      </c>
+      <c r="H1521">
+        <v>21156</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
         <v>898</v>
       </c>
-      <c r="B1516" t="s">
+      <c r="B1522" t="s">
         <v>16</v>
       </c>
-      <c r="C1516" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1516" t="s">
-        <v>833</v>
-      </c>
-      <c r="E1516" t="s">
+      <c r="C1522" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>833</v>
+      </c>
+      <c r="E1522" t="s">
         <v>896</v>
       </c>
-      <c r="H1516">
+      <c r="H1522">
         <v>21157</v>
       </c>
     </row>
-    <row r="1517" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1517" t="s">
+    <row r="1523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1523" t="s">
         <v>832</v>
       </c>
-      <c r="C1517" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1517" t="s">
-        <v>833</v>
-      </c>
-      <c r="H1517">
+      <c r="C1523" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>833</v>
+      </c>
+      <c r="H1523">
         <v>19144</v>
       </c>
     </row>
-    <row r="1518" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1518" t="s">
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1524" t="s">
         <v>19</v>
       </c>
-      <c r="C1518" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1518" t="s">
-        <v>833</v>
-      </c>
-      <c r="H1518">
+      <c r="C1524" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>833</v>
+      </c>
+      <c r="H1524">
         <v>18047</v>
       </c>
     </row>

--- a/Microsoft 365/Current Channel/publishercontrols.xlsx
+++ b/Microsoft 365/Current Channel/publishercontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\CCNov2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\CCJan2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A53DA6E3-1498-4527-A2DD-4894A642EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD031156-7D34-4107-8EA5-8EF7A17765E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5415" windowWidth="51600" windowHeight="15465"/>
+    <workbookView xWindow="2850" yWindow="4260" windowWidth="25470" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="publishercontrols" sheetId="1" r:id="rId1"/>
